--- a/input_data/simple_dh_model.xlsx
+++ b/input_data/simple_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E331F3E6-185F-45C0-8267-F0DD15FBFF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46FFD7-E1B6-4F6E-B006-EBB1169386FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="17" activeTab="25" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="4" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="145">
   <si>
     <t>node</t>
   </si>
@@ -306,9 +306,6 @@
     <t>penalty</t>
   </si>
   <si>
-    <t>reserve_product</t>
-  </si>
-  <si>
     <t>processgroup</t>
   </si>
   <si>
@@ -467,6 +464,36 @@
   <si>
     <t>ramp_dummy_variable_cost</t>
   </si>
+  <si>
+    <t>hp1_c1</t>
+  </si>
+  <si>
+    <t>hp1_c1,s1</t>
+  </si>
+  <si>
+    <t>hp1_c1,s2</t>
+  </si>
+  <si>
+    <t>hp1_c1,s3</t>
+  </si>
+  <si>
+    <t>hp1_c1,heat_pump_1,elc,s1</t>
+  </si>
+  <si>
+    <t>hp1_c1,heat_pump_1,elc,s2</t>
+  </si>
+  <si>
+    <t>hp1_c1,heat_pump_1,elc,s3</t>
+  </si>
+  <si>
+    <t>hp1_c1,heat_pump_1,hp_source,s1</t>
+  </si>
+  <si>
+    <t>hp1_c1,heat_pump_1,hp_source,s2</t>
+  </si>
+  <si>
+    <t>hp1_c1,heat_pump_1,hp_source,s3</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -532,9 +559,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2507,76 +2531,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.95</c:v>
+                  <c:v>1.9500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.83</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.93</c:v>
+                  <c:v>1.9300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7800000000000002</c:v>
+                  <c:v>1.7800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9200000000000004</c:v>
+                  <c:v>1.9200000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8200000000000003</c:v>
+                  <c:v>1.8200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7700000000000005</c:v>
+                  <c:v>1.7700000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9400000000000004</c:v>
+                  <c:v>1.9400000000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8200000000000003</c:v>
+                  <c:v>1.8200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8000000000000003</c:v>
+                  <c:v>1.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7800000000000002</c:v>
+                  <c:v>1.7800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9000000000000004</c:v>
+                  <c:v>1.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0300000000000002</c:v>
+                  <c:v>2.0300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.1100000000000003</c:v>
+                  <c:v>2.1100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2100000000000004</c:v>
+                  <c:v>2.2100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.24</c:v>
+                  <c:v>2.2400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.3400000000000003</c:v>
+                  <c:v>2.3400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.3100000000000005</c:v>
+                  <c:v>2.3100000000000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.3500000000000005</c:v>
+                  <c:v>2.3500000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5200000000000005</c:v>
+                  <c:v>2.5200000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.5100000000000007</c:v>
+                  <c:v>2.5100000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.4600000000000009</c:v>
+                  <c:v>2.4600000000000009</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5100000000000007</c:v>
+                  <c:v>2.5100000000000007</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.6400000000000006</c:v>
+                  <c:v>2.6400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,76 +2645,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3.1</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.04</c:v>
+                  <c:v>2.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.14</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.08</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0500000000000003</c:v>
+                  <c:v>2.0500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2100000000000004</c:v>
+                  <c:v>2.2100000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0600000000000005</c:v>
+                  <c:v>2.0600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0900000000000003</c:v>
+                  <c:v>2.0900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1900000000000004</c:v>
+                  <c:v>2.1900000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3600000000000003</c:v>
+                  <c:v>2.3600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.5500000000000003</c:v>
+                  <c:v>2.5500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7500000000000004</c:v>
+                  <c:v>2.7500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.8400000000000003</c:v>
+                  <c:v>2.8400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.8000000000000003</c:v>
+                  <c:v>2.8000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.83</c:v>
+                  <c:v>2.83</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.9</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.78</c:v>
+                  <c:v>2.78</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.6599999999999997</c:v>
+                  <c:v>2.6599999999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7099999999999995</c:v>
+                  <c:v>2.7099999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8799999999999994</c:v>
+                  <c:v>2.8799999999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.8499999999999996</c:v>
+                  <c:v>2.8499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.9199999999999995</c:v>
+                  <c:v>2.9199999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.7299999999999995</c:v>
+                  <c:v>2.7299999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.8099999999999996</c:v>
+                  <c:v>2.8099999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2735,76 +2759,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>2.75</c:v>
+                  <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.64</c:v>
+                  <c:v>1.6400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5700000000000003</c:v>
+                  <c:v>1.5700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3800000000000003</c:v>
+                  <c:v>1.3800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.4300000000000002</c:v>
+                  <c:v>1.4300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.52</c:v>
+                  <c:v>1.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.59</c:v>
+                  <c:v>1.5899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.44</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.39</c:v>
+                  <c:v>1.3900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4700000000000002</c:v>
+                  <c:v>1.4700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.37</c:v>
+                  <c:v>1.37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.25</c:v>
+                  <c:v>1.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.44</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4499999999999997</c:v>
+                  <c:v>1.4499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.2899999999999996</c:v>
+                  <c:v>1.2899999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.1699999999999995</c:v>
+                  <c:v>1.1699999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1299999999999994</c:v>
+                  <c:v>1.1299999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.3099999999999996</c:v>
+                  <c:v>1.3099999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.1099999999999994</c:v>
+                  <c:v>1.1099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0699999999999994</c:v>
+                  <c:v>1.0699999999999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2399999999999993</c:v>
+                  <c:v>1.2399999999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4099999999999993</c:v>
+                  <c:v>1.4099999999999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.4099999999999993</c:v>
+                  <c:v>1.4099999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3116,79 +3140,79 @@
             <c:numRef>
               <c:f>cap_ts!$B$2:$B$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3.13</c:v>
+                  <c:v>1.5649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.23</c:v>
+                  <c:v>1.615</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.23</c:v>
+                  <c:v>1.615</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.53</c:v>
+                  <c:v>1.7649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4299999999999997</c:v>
+                  <c:v>1.7149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2299999999999995</c:v>
+                  <c:v>1.6149999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0299999999999994</c:v>
+                  <c:v>1.5149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2299999999999995</c:v>
+                  <c:v>1.6149999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5299999999999994</c:v>
+                  <c:v>1.7649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.4299999999999993</c:v>
+                  <c:v>1.7149999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6299999999999994</c:v>
+                  <c:v>1.8149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.9299999999999993</c:v>
+                  <c:v>1.9649999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0299999999999994</c:v>
+                  <c:v>2.0149999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.9299999999999993</c:v>
+                  <c:v>1.9649999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.129999999999999</c:v>
+                  <c:v>2.0649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.129999999999999</c:v>
+                  <c:v>2.0649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4299999999999988</c:v>
+                  <c:v>2.2149999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.629999999999999</c:v>
+                  <c:v>2.3149999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.629999999999999</c:v>
+                  <c:v>2.3149999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7299999999999986</c:v>
+                  <c:v>2.3649999999999993</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5299999999999985</c:v>
+                  <c:v>2.2649999999999992</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.7299999999999986</c:v>
+                  <c:v>2.3649999999999993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7299999999999986</c:v>
+                  <c:v>2.3649999999999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.0299999999999985</c:v>
+                  <c:v>2.5149999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3230,79 +3254,79 @@
             <c:numRef>
               <c:f>cap_ts!$C$2:$C$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4.6900000000000004</c:v>
+                  <c:v>2.3450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8900000000000006</c:v>
+                  <c:v>2.4450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0900000000000007</c:v>
+                  <c:v>2.5450000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9900000000000011</c:v>
+                  <c:v>2.4950000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7900000000000009</c:v>
+                  <c:v>2.3950000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0900000000000007</c:v>
+                  <c:v>2.5450000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9900000000000011</c:v>
+                  <c:v>2.4950000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2900000000000009</c:v>
+                  <c:v>2.6450000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4900000000000011</c:v>
+                  <c:v>2.7450000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5900000000000007</c:v>
+                  <c:v>2.7950000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.3900000000000006</c:v>
+                  <c:v>2.6950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.3900000000000006</c:v>
+                  <c:v>2.6950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3900000000000006</c:v>
+                  <c:v>2.6950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.5900000000000007</c:v>
+                  <c:v>2.7950000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.8900000000000006</c:v>
+                  <c:v>2.9450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.7900000000000009</c:v>
+                  <c:v>2.8950000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.0900000000000007</c:v>
+                  <c:v>3.0450000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.3900000000000006</c:v>
+                  <c:v>3.1950000000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.19</c:v>
+                  <c:v>3.0950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.0900000000000007</c:v>
+                  <c:v>3.0450000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.19</c:v>
+                  <c:v>3.0950000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8900000000000006</c:v>
+                  <c:v>2.9450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7900000000000009</c:v>
+                  <c:v>2.8950000000000005</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.8900000000000006</c:v>
+                  <c:v>2.9450000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,79 +3368,79 @@
             <c:numRef>
               <c:f>cap_ts!$D$2:$D$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>4.99</c:v>
+                  <c:v>2.4950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.09</c:v>
+                  <c:v>2.5449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8899999999999997</c:v>
+                  <c:v>2.4449999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9899999999999993</c:v>
+                  <c:v>2.4949999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2899999999999991</c:v>
+                  <c:v>2.6449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.089999999999999</c:v>
+                  <c:v>2.5449999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1899999999999986</c:v>
+                  <c:v>2.5949999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9899999999999984</c:v>
+                  <c:v>2.4949999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9899999999999984</c:v>
+                  <c:v>2.4949999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8899999999999988</c:v>
+                  <c:v>2.4449999999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.089999999999999</c:v>
+                  <c:v>2.5449999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7899999999999991</c:v>
+                  <c:v>2.3949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9899999999999993</c:v>
+                  <c:v>2.4949999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2899999999999991</c:v>
+                  <c:v>2.6449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4899999999999993</c:v>
+                  <c:v>2.7449999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.589999999999999</c:v>
+                  <c:v>2.7949999999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.7899999999999991</c:v>
+                  <c:v>2.8949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.8899999999999988</c:v>
+                  <c:v>2.9449999999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8899999999999988</c:v>
+                  <c:v>2.9449999999999994</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.089999999999999</c:v>
+                  <c:v>3.0449999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.9899999999999993</c:v>
+                  <c:v>2.9949999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7899999999999991</c:v>
+                  <c:v>2.8949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7899999999999991</c:v>
+                  <c:v>2.8949999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.589999999999999</c:v>
+                  <c:v>2.7949999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,7 +3536,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7134,13 +7158,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7177,7 +7201,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7193,13 +7217,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -7598,7 +7622,7 @@
         <v>67</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -8092,7 +8116,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8105,10 +8129,10 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -8117,7 +8141,7 @@
         <v>45398</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -8129,7 +8153,7 @@
         <v>45398.041666666664</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -8141,7 +8165,7 @@
         <v>45398.083333333336</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -8153,7 +8177,7 @@
         <v>45398.125</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -8165,7 +8189,7 @@
         <v>45398.166666666664</v>
       </c>
       <c r="B6">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -8177,7 +8201,7 @@
         <v>45398.208333333336</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8189,7 +8213,7 @@
         <v>45398.25</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -8201,7 +8225,7 @@
         <v>45398.291666666664</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -8213,7 +8237,7 @@
         <v>45398.333333333336</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -8225,7 +8249,7 @@
         <v>45398.375</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -8237,7 +8261,7 @@
         <v>45398.416666666664</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -8249,7 +8273,7 @@
         <v>45398.458333333336</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -8261,7 +8285,7 @@
         <v>45398.5</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -8273,7 +8297,7 @@
         <v>45398.541666666664</v>
       </c>
       <c r="B15">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -8285,7 +8309,7 @@
         <v>45398.583333333336</v>
       </c>
       <c r="B16">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -8297,7 +8321,7 @@
         <v>45398.625</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -8309,7 +8333,7 @@
         <v>45398.666666666664</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -8321,7 +8345,7 @@
         <v>45398.708333333336</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -8333,7 +8357,7 @@
         <v>45398.75</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -8345,7 +8369,7 @@
         <v>45398.791666666664</v>
       </c>
       <c r="B21">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -8357,7 +8381,7 @@
         <v>45398.833333333336</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -8369,7 +8393,7 @@
         <v>45398.875</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -8381,7 +8405,7 @@
         <v>45398.916666666664</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -8393,7 +8417,7 @@
         <v>45398.958333333336</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -8410,7 +8434,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8436,7 +8460,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>31</v>
@@ -8474,7 +8498,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>32</v>
@@ -8512,33 +8536,208 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
     <col min="2" max="3" width="6.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>82</v>
+      <c r="A1" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8550,7 +8749,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8571,7 +8770,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -8983,7 +9182,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9005,7 +9204,7 @@
         <v>55</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>56</v>
@@ -9014,7 +9213,7 @@
         <v>57</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -9024,28 +9223,28 @@
         <v>45398</v>
       </c>
       <c r="B2">
-        <f>1.05*market_prices!B2</f>
-        <v>17.2515</v>
+        <f>market_prices!B2+0.01</f>
+        <v>16.440000000000001</v>
       </c>
       <c r="C2">
-        <f>1.05*market_prices!C2</f>
-        <v>25.462500000000002</v>
+        <f>market_prices!C2+0.01</f>
+        <v>24.26</v>
       </c>
       <c r="D2">
-        <f>1.05*market_prices!D2</f>
-        <v>18.6585</v>
+        <f>market_prices!D2+0.01</f>
+        <v>17.78</v>
       </c>
       <c r="E2">
-        <f>0.95*market_prices!B2</f>
-        <v>15.608499999999999</v>
+        <f>market_prices!B2-0.01</f>
+        <v>16.419999999999998</v>
       </c>
       <c r="F2">
-        <f>0.95*market_prices!C2</f>
-        <v>23.037499999999998</v>
+        <f>market_prices!C2-0.01</f>
+        <v>24.24</v>
       </c>
       <c r="G2">
-        <f>0.95*market_prices!D2</f>
-        <v>16.881499999999999</v>
+        <f>market_prices!D2-0.01</f>
+        <v>17.759999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -9054,28 +9253,28 @@
         <v>45398.041666666664</v>
       </c>
       <c r="B3">
-        <f>1.05*market_prices!B3</f>
-        <v>8.0325000000000006</v>
+        <f>market_prices!B3+0.01</f>
+        <v>7.66</v>
       </c>
       <c r="C3">
-        <f>1.05*market_prices!C3</f>
-        <v>23.709</v>
+        <f>market_prices!C3+0.01</f>
+        <v>22.59</v>
       </c>
       <c r="D3">
-        <f>1.05*market_prices!D3</f>
-        <v>20.086500000000001</v>
+        <f>market_prices!D3+0.01</f>
+        <v>19.14</v>
       </c>
       <c r="E3">
-        <f>0.95*market_prices!B3</f>
-        <v>7.2675000000000001</v>
+        <f>market_prices!B3-0.01</f>
+        <v>7.6400000000000006</v>
       </c>
       <c r="F3">
-        <f>0.95*market_prices!C3</f>
-        <v>21.450999999999997</v>
+        <f>market_prices!C3-0.01</f>
+        <v>22.569999999999997</v>
       </c>
       <c r="G3">
-        <f>0.95*market_prices!D3</f>
-        <v>18.173499999999997</v>
+        <f>market_prices!D3-0.01</f>
+        <v>19.119999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -9084,28 +9283,28 @@
         <v>45398.083333333336</v>
       </c>
       <c r="B4">
-        <f>1.05*market_prices!B4</f>
-        <v>2.2364999999999999</v>
+        <f>market_prices!B4+0.01</f>
+        <v>2.1399999999999997</v>
       </c>
       <c r="C4">
-        <f>1.05*market_prices!C4</f>
-        <v>25.756500000000003</v>
+        <f>market_prices!C4+0.01</f>
+        <v>24.540000000000003</v>
       </c>
       <c r="D4">
-        <f>1.05*market_prices!D4</f>
-        <v>21.441000000000003</v>
+        <f>market_prices!D4+0.01</f>
+        <v>20.430000000000003</v>
       </c>
       <c r="E4">
-        <f>0.95*market_prices!B4</f>
-        <v>2.0234999999999999</v>
+        <f>market_prices!B4-0.01</f>
+        <v>2.12</v>
       </c>
       <c r="F4">
-        <f>0.95*market_prices!C4</f>
-        <v>23.3035</v>
+        <f>market_prices!C4-0.01</f>
+        <v>24.52</v>
       </c>
       <c r="G4">
-        <f>0.95*market_prices!D4</f>
-        <v>19.399000000000001</v>
+        <f>market_prices!D4-0.01</f>
+        <v>20.41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -9114,28 +9313,28 @@
         <v>45398.125</v>
       </c>
       <c r="B5">
-        <f>1.05*market_prices!B5</f>
-        <v>2.9715000000000003</v>
+        <f>market_prices!B5+0.01</f>
+        <v>2.84</v>
       </c>
       <c r="C5">
-        <f>1.05*market_prices!C5</f>
-        <v>27.173999999999999</v>
+        <f>market_prices!C5+0.01</f>
+        <v>25.89</v>
       </c>
       <c r="D5">
-        <f>1.05*market_prices!D5</f>
-        <v>21.325500000000002</v>
+        <f>market_prices!D5+0.01</f>
+        <v>20.320000000000004</v>
       </c>
       <c r="E5">
-        <f>0.95*market_prices!B5</f>
-        <v>2.6884999999999999</v>
+        <f>market_prices!B5-0.01</f>
+        <v>2.8200000000000003</v>
       </c>
       <c r="F5">
-        <f>0.95*market_prices!C5</f>
-        <v>24.585999999999999</v>
+        <f>market_prices!C5-0.01</f>
+        <v>25.869999999999997</v>
       </c>
       <c r="G5">
-        <f>0.95*market_prices!D5</f>
-        <v>19.294500000000003</v>
+        <f>market_prices!D5-0.01</f>
+        <v>20.3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -9144,28 +9343,28 @@
         <v>45398.166666666664</v>
       </c>
       <c r="B6">
-        <f>1.05*market_prices!B6</f>
-        <v>3.7170000000000001</v>
+        <f>market_prices!B6+0.01</f>
+        <v>3.55</v>
       </c>
       <c r="C6">
-        <f>1.05*market_prices!C6</f>
-        <v>27.867000000000001</v>
+        <f>market_prices!C6+0.01</f>
+        <v>26.55</v>
       </c>
       <c r="D6">
-        <f>1.05*market_prices!D6</f>
-        <v>47.759250000000002</v>
+        <f>market_prices!D6+0.01</f>
+        <v>45.494999999999997</v>
       </c>
       <c r="E6">
-        <f>0.95*market_prices!B6</f>
-        <v>3.363</v>
+        <f>market_prices!B6-0.01</f>
+        <v>3.5300000000000002</v>
       </c>
       <c r="F6">
-        <f>0.95*market_prices!C6</f>
-        <v>25.212999999999997</v>
+        <f>market_prices!C6-0.01</f>
+        <v>26.529999999999998</v>
       </c>
       <c r="G6">
-        <f>0.95*market_prices!D6</f>
-        <v>43.210749999999997</v>
+        <f>market_prices!D6-0.01</f>
+        <v>45.475000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -9174,28 +9373,28 @@
         <v>45398.208333333336</v>
       </c>
       <c r="B7">
-        <f>1.05*market_prices!B7</f>
-        <v>18.6585</v>
+        <f>market_prices!B7+0.01</f>
+        <v>17.78</v>
       </c>
       <c r="C7">
-        <f>1.05*market_prices!C7</f>
-        <v>29.305500000000002</v>
+        <f>market_prices!C7+0.01</f>
+        <v>27.92</v>
       </c>
       <c r="D7">
-        <f>1.05*market_prices!D7</f>
-        <v>66.144750000000002</v>
+        <f>market_prices!D7+0.01</f>
+        <v>63.004999999999995</v>
       </c>
       <c r="E7">
-        <f>0.95*market_prices!B7</f>
-        <v>16.881499999999999</v>
+        <f>market_prices!B7-0.01</f>
+        <v>17.759999999999998</v>
       </c>
       <c r="F7">
-        <f>0.95*market_prices!C7</f>
-        <v>26.514499999999998</v>
+        <f>market_prices!C7-0.01</f>
+        <v>27.9</v>
       </c>
       <c r="G7">
-        <f>0.95*market_prices!D7</f>
-        <v>59.845249999999993</v>
+        <f>market_prices!D7-0.01</f>
+        <v>62.984999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -9204,28 +9403,28 @@
         <v>45398.25</v>
       </c>
       <c r="B8">
-        <f>1.05*market_prices!B8</f>
-        <v>18.784499999999998</v>
+        <f>market_prices!B8+0.01</f>
+        <v>17.899999999999999</v>
       </c>
       <c r="C8">
-        <f>1.05*market_prices!C8</f>
-        <v>52.037999999999997</v>
+        <f>market_prices!C8+0.01</f>
+        <v>49.569999999999993</v>
       </c>
       <c r="D8">
-        <f>1.05*market_prices!D8</f>
-        <v>81.338250000000002</v>
+        <f>market_prices!D8+0.01</f>
+        <v>77.475000000000009</v>
       </c>
       <c r="E8">
-        <f>0.95*market_prices!B8</f>
-        <v>16.995499999999996</v>
+        <f>market_prices!B8-0.01</f>
+        <v>17.879999999999995</v>
       </c>
       <c r="F8">
-        <f>0.95*market_prices!C8</f>
-        <v>47.081999999999994</v>
+        <f>market_prices!C8-0.01</f>
+        <v>49.55</v>
       </c>
       <c r="G8">
-        <f>0.95*market_prices!D8</f>
-        <v>73.591750000000005</v>
+        <f>market_prices!D8-0.01</f>
+        <v>77.454999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -9234,28 +9433,28 @@
         <v>45398.291666666664</v>
       </c>
       <c r="B9">
-        <f>1.05*market_prices!B9</f>
-        <v>26.754000000000001</v>
+        <f>market_prices!B9+0.01</f>
+        <v>25.490000000000002</v>
       </c>
       <c r="C9">
-        <f>1.05*market_prices!C9</f>
-        <v>59.030999999999999</v>
+        <f>market_prices!C9+0.01</f>
+        <v>56.23</v>
       </c>
       <c r="D9">
-        <f>1.05*market_prices!D9</f>
-        <v>87.297000000000011</v>
+        <f>market_prices!D9+0.01</f>
+        <v>83.15</v>
       </c>
       <c r="E9">
-        <f>0.95*market_prices!B9</f>
-        <v>24.206</v>
+        <f>market_prices!B9-0.01</f>
+        <v>25.47</v>
       </c>
       <c r="F9">
-        <f>0.95*market_prices!C9</f>
-        <v>53.408999999999999</v>
+        <f>market_prices!C9-0.01</f>
+        <v>56.21</v>
       </c>
       <c r="G9">
-        <f>0.95*market_prices!D9</f>
-        <v>78.98299999999999</v>
+        <f>market_prices!D9-0.01</f>
+        <v>83.13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -9264,28 +9463,28 @@
         <v>45398.333333333336</v>
       </c>
       <c r="B10">
-        <f>1.05*market_prices!B10</f>
-        <v>25.452000000000002</v>
+        <f>market_prices!B10+0.01</f>
+        <v>24.250000000000004</v>
       </c>
       <c r="C10">
-        <f>1.05*market_prices!C10</f>
-        <v>52.731000000000002</v>
+        <f>market_prices!C10+0.01</f>
+        <v>50.23</v>
       </c>
       <c r="D10">
-        <f>1.05*market_prices!D10</f>
-        <v>87.17625000000001</v>
+        <f>market_prices!D10+0.01</f>
+        <v>83.035000000000011</v>
       </c>
       <c r="E10">
-        <f>0.95*market_prices!B10</f>
-        <v>23.028000000000002</v>
+        <f>market_prices!B10-0.01</f>
+        <v>24.23</v>
       </c>
       <c r="F10">
-        <f>0.95*market_prices!C10</f>
-        <v>47.708999999999996</v>
+        <f>market_prices!C10-0.01</f>
+        <v>50.21</v>
       </c>
       <c r="G10">
-        <f>0.95*market_prices!D10</f>
-        <v>78.873750000000001</v>
+        <f>market_prices!D10-0.01</f>
+        <v>83.015000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -9294,28 +9493,28 @@
         <v>45398.375</v>
       </c>
       <c r="B11">
-        <f>1.05*market_prices!B11</f>
-        <v>25.945500000000003</v>
+        <f>market_prices!B11+0.01</f>
+        <v>24.720000000000002</v>
       </c>
       <c r="C11">
-        <f>1.05*market_prices!C11</f>
-        <v>59.115000000000002</v>
+        <f>market_prices!C11+0.01</f>
+        <v>56.309999999999995</v>
       </c>
       <c r="D11">
-        <f>1.05*market_prices!D11</f>
-        <v>87.722250000000003</v>
+        <f>market_prices!D11+0.01</f>
+        <v>83.555000000000007</v>
       </c>
       <c r="E11">
-        <f>0.95*market_prices!B11</f>
-        <v>23.474499999999999</v>
+        <f>market_prices!B11-0.01</f>
+        <v>24.7</v>
       </c>
       <c r="F11">
-        <f>0.95*market_prices!C11</f>
-        <v>53.484999999999992</v>
+        <f>market_prices!C11-0.01</f>
+        <v>56.29</v>
       </c>
       <c r="G11">
-        <f>0.95*market_prices!D11</f>
-        <v>79.367750000000001</v>
+        <f>market_prices!D11-0.01</f>
+        <v>83.534999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -9324,28 +9523,28 @@
         <v>45398.416666666664</v>
       </c>
       <c r="B12">
-        <f>1.05*market_prices!B12</f>
-        <v>28.077000000000002</v>
+        <f>market_prices!B12+0.01</f>
+        <v>26.750000000000004</v>
       </c>
       <c r="C12">
-        <f>1.05*market_prices!C12</f>
-        <v>59.041500000000006</v>
+        <f>market_prices!C12+0.01</f>
+        <v>56.24</v>
       </c>
       <c r="D12">
-        <f>1.05*market_prices!D12</f>
-        <v>85.480500000000006</v>
+        <f>market_prices!D12+0.01</f>
+        <v>81.42</v>
       </c>
       <c r="E12">
-        <f>0.95*market_prices!B12</f>
-        <v>25.403000000000002</v>
+        <f>market_prices!B12-0.01</f>
+        <v>26.73</v>
       </c>
       <c r="F12">
-        <f>0.95*market_prices!C12</f>
-        <v>53.418500000000002</v>
+        <f>market_prices!C12-0.01</f>
+        <v>56.220000000000006</v>
       </c>
       <c r="G12">
-        <f>0.95*market_prices!D12</f>
-        <v>77.339499999999987</v>
+        <f>market_prices!D12-0.01</f>
+        <v>81.399999999999991</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -9354,28 +9553,28 @@
         <v>45398.458333333336</v>
       </c>
       <c r="B13">
-        <f>1.05*market_prices!B13</f>
-        <v>25.0425</v>
+        <f>market_prices!B13+0.01</f>
+        <v>23.86</v>
       </c>
       <c r="C13">
-        <f>1.05*market_prices!C13</f>
-        <v>54.463499999999996</v>
+        <f>market_prices!C13+0.01</f>
+        <v>51.879999999999995</v>
       </c>
       <c r="D13">
-        <f>1.05*market_prices!D13</f>
-        <v>84.9345</v>
+        <f>market_prices!D13+0.01</f>
+        <v>80.900000000000006</v>
       </c>
       <c r="E13">
-        <f>0.95*market_prices!B13</f>
-        <v>22.657499999999995</v>
+        <f>market_prices!B13-0.01</f>
+        <v>23.839999999999996</v>
       </c>
       <c r="F13">
-        <f>0.95*market_prices!C13</f>
-        <v>49.276499999999999</v>
+        <f>market_prices!C13-0.01</f>
+        <v>51.86</v>
       </c>
       <c r="G13">
-        <f>0.95*market_prices!D13</f>
-        <v>76.845500000000001</v>
+        <f>market_prices!D13-0.01</f>
+        <v>80.88</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -9384,28 +9583,28 @@
         <v>45398.5</v>
       </c>
       <c r="B14">
-        <f>1.05*market_prices!B14</f>
-        <v>26.7225</v>
+        <f>market_prices!B14+0.01</f>
+        <v>25.46</v>
       </c>
       <c r="C14">
-        <f>1.05*market_prices!C14</f>
-        <v>59.2515</v>
+        <f>market_prices!C14+0.01</f>
+        <v>56.44</v>
       </c>
       <c r="D14">
-        <f>1.05*market_prices!D14</f>
-        <v>80.89725</v>
+        <f>market_prices!D14+0.01</f>
+        <v>77.055000000000007</v>
       </c>
       <c r="E14">
-        <f>0.95*market_prices!B14</f>
-        <v>24.177499999999998</v>
+        <f>market_prices!B14-0.01</f>
+        <v>25.439999999999998</v>
       </c>
       <c r="F14">
-        <f>0.95*market_prices!C14</f>
-        <v>53.608499999999999</v>
+        <f>market_prices!C14-0.01</f>
+        <v>56.42</v>
       </c>
       <c r="G14">
-        <f>0.95*market_prices!D14</f>
-        <v>73.192750000000004</v>
+        <f>market_prices!D14-0.01</f>
+        <v>77.034999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -9414,28 +9613,28 @@
         <v>45398.541666666664</v>
       </c>
       <c r="B15">
-        <f>1.05*market_prices!B15</f>
-        <v>28.6965</v>
+        <f>market_prices!B15+0.01</f>
+        <v>27.34</v>
       </c>
       <c r="C15">
-        <f>1.05*market_prices!C15</f>
-        <v>62.359500000000004</v>
+        <f>market_prices!C15+0.01</f>
+        <v>59.4</v>
       </c>
       <c r="D15">
-        <f>1.05*market_prices!D15</f>
-        <v>80.198999999999998</v>
+        <f>market_prices!D15+0.01</f>
+        <v>76.39</v>
       </c>
       <c r="E15">
-        <f>0.95*market_prices!B15</f>
-        <v>25.963499999999996</v>
+        <f>market_prices!B15-0.01</f>
+        <v>27.319999999999997</v>
       </c>
       <c r="F15">
-        <f>0.95*market_prices!C15</f>
-        <v>56.420499999999997</v>
+        <f>market_prices!C15-0.01</f>
+        <v>59.38</v>
       </c>
       <c r="G15">
-        <f>0.95*market_prices!D15</f>
-        <v>72.560999999999993</v>
+        <f>market_prices!D15-0.01</f>
+        <v>76.36999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -9444,28 +9643,28 @@
         <v>45398.583333333336</v>
       </c>
       <c r="B16">
-        <f>1.05*market_prices!B16</f>
-        <v>26.628</v>
+        <f>market_prices!B16+0.01</f>
+        <v>25.37</v>
       </c>
       <c r="C16">
-        <f>1.05*market_prices!C16</f>
-        <v>59.2515</v>
+        <f>market_prices!C16+0.01</f>
+        <v>56.44</v>
       </c>
       <c r="D16">
-        <f>1.05*market_prices!D16</f>
-        <v>84.971249999999998</v>
+        <f>market_prices!D16+0.01</f>
+        <v>80.935000000000002</v>
       </c>
       <c r="E16">
-        <f>0.95*market_prices!B16</f>
-        <v>24.091999999999999</v>
+        <f>market_prices!B16-0.01</f>
+        <v>25.349999999999998</v>
       </c>
       <c r="F16">
-        <f>0.95*market_prices!C16</f>
-        <v>53.608499999999999</v>
+        <f>market_prices!C16-0.01</f>
+        <v>56.42</v>
       </c>
       <c r="G16">
-        <f>0.95*market_prices!D16</f>
-        <v>76.878749999999997</v>
+        <f>market_prices!D16-0.01</f>
+        <v>80.914999999999992</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -9474,28 +9673,28 @@
         <v>45398.625</v>
       </c>
       <c r="B17">
-        <f>1.05*market_prices!B17</f>
-        <v>31.059000000000001</v>
+        <f>market_prices!B17+0.01</f>
+        <v>29.59</v>
       </c>
       <c r="C17">
-        <f>1.05*market_prices!C17</f>
-        <v>64.364999999999995</v>
+        <f>market_prices!C17+0.01</f>
+        <v>61.309999999999995</v>
       </c>
       <c r="D17">
-        <f>1.05*market_prices!D17</f>
-        <v>86.073750000000004</v>
+        <f>market_prices!D17+0.01</f>
+        <v>81.984999999999999</v>
       </c>
       <c r="E17">
-        <f>0.95*market_prices!B17</f>
-        <v>28.100999999999996</v>
+        <f>market_prices!B17-0.01</f>
+        <v>29.569999999999997</v>
       </c>
       <c r="F17">
-        <f>0.95*market_prices!C17</f>
-        <v>58.234999999999992</v>
+        <f>market_prices!C17-0.01</f>
+        <v>61.29</v>
       </c>
       <c r="G17">
-        <f>0.95*market_prices!D17</f>
-        <v>77.876249999999985</v>
+        <f>market_prices!D17-0.01</f>
+        <v>81.964999999999989</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -9504,28 +9703,28 @@
         <v>45398.666666666664</v>
       </c>
       <c r="B18">
-        <f>1.05*market_prices!B18</f>
-        <v>30.324000000000002</v>
+        <f>market_prices!B18+0.01</f>
+        <v>28.89</v>
       </c>
       <c r="C18">
-        <f>1.05*market_prices!C18</f>
-        <v>66.486000000000004</v>
+        <f>market_prices!C18+0.01</f>
+        <v>63.33</v>
       </c>
       <c r="D18">
-        <f>1.05*market_prices!D18</f>
-        <v>89.649000000000001</v>
+        <f>market_prices!D18+0.01</f>
+        <v>85.39</v>
       </c>
       <c r="E18">
-        <f>0.95*market_prices!B18</f>
-        <v>27.435999999999996</v>
+        <f>market_prices!B18-0.01</f>
+        <v>28.869999999999997</v>
       </c>
       <c r="F18">
-        <f>0.95*market_prices!C18</f>
-        <v>60.153999999999996</v>
+        <f>market_prices!C18-0.01</f>
+        <v>63.31</v>
       </c>
       <c r="G18">
-        <f>0.95*market_prices!D18</f>
-        <v>81.11099999999999</v>
+        <f>market_prices!D18-0.01</f>
+        <v>85.36999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9534,28 +9733,28 @@
         <v>45398.708333333336</v>
       </c>
       <c r="B19">
-        <f>1.05*market_prices!B19</f>
-        <v>28.791000000000004</v>
+        <f>market_prices!B19+0.01</f>
+        <v>27.430000000000003</v>
       </c>
       <c r="C19">
-        <f>1.05*market_prices!C19</f>
-        <v>63.262500000000003</v>
+        <f>market_prices!C19+0.01</f>
+        <v>60.26</v>
       </c>
       <c r="D19">
-        <f>1.05*market_prices!D19</f>
-        <v>87.286500000000018</v>
+        <f>market_prices!D19+0.01</f>
+        <v>83.140000000000015</v>
       </c>
       <c r="E19">
-        <f>0.95*market_prices!B19</f>
-        <v>26.048999999999999</v>
+        <f>market_prices!B19-0.01</f>
+        <v>27.41</v>
       </c>
       <c r="F19">
-        <f>0.95*market_prices!C19</f>
-        <v>57.237499999999997</v>
+        <f>market_prices!C19-0.01</f>
+        <v>60.24</v>
       </c>
       <c r="G19">
-        <f>0.95*market_prices!D19</f>
-        <v>78.973500000000001</v>
+        <f>market_prices!D19-0.01</f>
+        <v>83.12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -9564,28 +9763,28 @@
         <v>45398.75</v>
       </c>
       <c r="B20">
-        <f>1.05*market_prices!B20</f>
-        <v>29.725500000000004</v>
+        <f>market_prices!B20+0.01</f>
+        <v>28.320000000000004</v>
       </c>
       <c r="C20">
-        <f>1.05*market_prices!C20</f>
-        <v>54.526499999999999</v>
+        <f>market_prices!C20+0.01</f>
+        <v>51.94</v>
       </c>
       <c r="D20">
-        <f>1.05*market_prices!D20</f>
-        <v>80.472000000000008</v>
+        <f>market_prices!D20+0.01</f>
+        <v>76.650000000000006</v>
       </c>
       <c r="E20">
-        <f>0.95*market_prices!B20</f>
-        <v>26.894500000000001</v>
+        <f>market_prices!B20-0.01</f>
+        <v>28.3</v>
       </c>
       <c r="F20">
-        <f>0.95*market_prices!C20</f>
-        <v>49.333500000000001</v>
+        <f>market_prices!C20-0.01</f>
+        <v>51.92</v>
       </c>
       <c r="G20">
-        <f>0.95*market_prices!D20</f>
-        <v>72.807999999999993</v>
+        <f>market_prices!D20-0.01</f>
+        <v>76.63</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -9594,28 +9793,28 @@
         <v>45398.791666666664</v>
       </c>
       <c r="B21">
-        <f>1.05*market_prices!B21</f>
-        <v>27.51</v>
+        <f>market_prices!B21+0.01</f>
+        <v>26.21</v>
       </c>
       <c r="C21">
-        <f>1.05*market_prices!C21</f>
-        <v>38.933999999999997</v>
+        <f>market_prices!C21+0.01</f>
+        <v>37.089999999999996</v>
       </c>
       <c r="D21">
-        <f>1.05*market_prices!D21</f>
-        <v>76.865250000000003</v>
+        <f>market_prices!D21+0.01</f>
+        <v>73.215000000000003</v>
       </c>
       <c r="E21">
-        <f>0.95*market_prices!B21</f>
-        <v>24.889999999999997</v>
+        <f>market_prices!B21-0.01</f>
+        <v>26.189999999999998</v>
       </c>
       <c r="F21">
-        <f>0.95*market_prices!C21</f>
-        <v>35.225999999999999</v>
+        <f>market_prices!C21-0.01</f>
+        <v>37.07</v>
       </c>
       <c r="G21">
-        <f>0.95*market_prices!D21</f>
-        <v>69.544749999999993</v>
+        <f>market_prices!D21-0.01</f>
+        <v>73.194999999999993</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -9624,28 +9823,28 @@
         <v>45398.833333333336</v>
       </c>
       <c r="B22">
-        <f>1.05*market_prices!B22</f>
-        <v>30.208500000000001</v>
+        <f>market_prices!B22+0.01</f>
+        <v>28.78</v>
       </c>
       <c r="C22">
-        <f>1.05*market_prices!C22</f>
-        <v>38.6295</v>
+        <f>market_prices!C22+0.01</f>
+        <v>36.799999999999997</v>
       </c>
       <c r="D22">
-        <f>1.05*market_prices!D22</f>
-        <v>68.958749999999995</v>
+        <f>market_prices!D22+0.01</f>
+        <v>65.685000000000002</v>
       </c>
       <c r="E22">
-        <f>0.95*market_prices!B22</f>
-        <v>27.331499999999998</v>
+        <f>market_prices!B22-0.01</f>
+        <v>28.759999999999998</v>
       </c>
       <c r="F22">
-        <f>0.95*market_prices!C22</f>
-        <v>34.950499999999998</v>
+        <f>market_prices!C22-0.01</f>
+        <v>36.78</v>
       </c>
       <c r="G22">
-        <f>0.95*market_prices!D22</f>
-        <v>62.391249999999992</v>
+        <f>market_prices!D22-0.01</f>
+        <v>65.664999999999992</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -9654,28 +9853,28 @@
         <v>45398.875</v>
       </c>
       <c r="B23">
-        <f>1.05*market_prices!B23</f>
-        <v>28.423500000000001</v>
+        <f>market_prices!B23+0.01</f>
+        <v>27.080000000000002</v>
       </c>
       <c r="C23">
-        <f>1.05*market_prices!C23</f>
-        <v>33.337499999999999</v>
+        <f>market_prices!C23+0.01</f>
+        <v>31.76</v>
       </c>
       <c r="D23">
-        <f>1.05*market_prices!D23</f>
-        <v>59.829000000000001</v>
+        <f>market_prices!D23+0.01</f>
+        <v>56.989999999999995</v>
       </c>
       <c r="E23">
-        <f>0.95*market_prices!B23</f>
-        <v>25.7165</v>
+        <f>market_prices!B23-0.01</f>
+        <v>27.06</v>
       </c>
       <c r="F23">
-        <f>0.95*market_prices!C23</f>
-        <v>30.162499999999998</v>
+        <f>market_prices!C23-0.01</f>
+        <v>31.74</v>
       </c>
       <c r="G23">
-        <f>0.95*market_prices!D23</f>
-        <v>54.130999999999993</v>
+        <f>market_prices!D23-0.01</f>
+        <v>56.97</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -9684,28 +9883,28 @@
         <v>45398.916666666664</v>
       </c>
       <c r="B24">
-        <f>1.05*market_prices!B24</f>
-        <v>28.717499999999998</v>
+        <f>market_prices!B24+0.01</f>
+        <v>27.36</v>
       </c>
       <c r="C24">
-        <f>1.05*market_prices!C24</f>
-        <v>30.607500000000005</v>
+        <f>market_prices!C24+0.01</f>
+        <v>29.160000000000004</v>
       </c>
       <c r="D24">
-        <f>1.05*market_prices!D24</f>
-        <v>44.367750000000008</v>
+        <f>market_prices!D24+0.01</f>
+        <v>42.265000000000001</v>
       </c>
       <c r="E24">
-        <f>0.95*market_prices!B24</f>
-        <v>25.982499999999998</v>
+        <f>market_prices!B24-0.01</f>
+        <v>27.339999999999996</v>
       </c>
       <c r="F24">
-        <f>0.95*market_prices!C24</f>
-        <v>27.692499999999999</v>
+        <f>market_prices!C24-0.01</f>
+        <v>29.14</v>
       </c>
       <c r="G24">
-        <f>0.95*market_prices!D24</f>
-        <v>40.142249999999997</v>
+        <f>market_prices!D24-0.01</f>
+        <v>42.245000000000005</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -9714,28 +9913,28 @@
         <v>45398.958333333336</v>
       </c>
       <c r="B25">
-        <f>1.05*market_prices!B25</f>
-        <v>28.801500000000001</v>
+        <f>market_prices!B25+0.01</f>
+        <v>27.44</v>
       </c>
       <c r="C25">
-        <f>1.05*market_prices!C25</f>
-        <v>30.145499999999998</v>
+        <f>market_prices!C25+0.01</f>
+        <v>28.72</v>
       </c>
       <c r="D25">
-        <f>1.05*market_prices!D25</f>
-        <v>50.226750000000003</v>
+        <f>market_prices!D25+0.01</f>
+        <v>47.844999999999999</v>
       </c>
       <c r="E25">
-        <f>0.95*market_prices!B25</f>
-        <v>26.058499999999999</v>
+        <f>market_prices!B25-0.01</f>
+        <v>27.419999999999998</v>
       </c>
       <c r="F25">
-        <f>0.95*market_prices!C25</f>
-        <v>27.274499999999996</v>
+        <f>market_prices!C25-0.01</f>
+        <v>28.699999999999996</v>
       </c>
       <c r="G25">
-        <f>0.95*market_prices!D25</f>
-        <v>45.443249999999999</v>
+        <f>market_prices!D25-0.01</f>
+        <v>47.825000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -9789,6 +9988,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9797,7 +9997,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9816,7 +10016,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9824,7 +10024,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9832,7 +10032,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9840,7 +10040,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -9848,7 +10048,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -9856,7 +10056,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9864,7 +10064,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8">
         <v>10000000</v>
@@ -9872,7 +10072,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9880,7 +10080,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -9967,7 +10167,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -10157,13 +10357,13 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -10171,13 +10371,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -10186,13 +10386,13 @@
         <v>45398</v>
       </c>
       <c r="B2">
-        <v>2.95</v>
+        <v>1.9500000000000002</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="D2">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10201,13 +10401,13 @@
         <v>45398.041666666664</v>
       </c>
       <c r="B3">
-        <v>2.83</v>
+        <v>1.83</v>
       </c>
       <c r="C3">
-        <v>3.04</v>
+        <v>2.04</v>
       </c>
       <c r="D3">
-        <v>2.64</v>
+        <v>1.6400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10216,13 +10416,13 @@
         <v>45398.083333333336</v>
       </c>
       <c r="B4">
-        <v>2.93</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="C4">
-        <v>3.14</v>
+        <v>2.14</v>
       </c>
       <c r="D4">
-        <v>2.5700000000000003</v>
+        <v>1.5700000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10231,13 +10431,13 @@
         <v>45398.125</v>
       </c>
       <c r="B5">
-        <v>2.7800000000000002</v>
+        <v>1.7800000000000002</v>
       </c>
       <c r="C5">
-        <v>3.08</v>
+        <v>2.08</v>
       </c>
       <c r="D5">
-        <v>2.3800000000000003</v>
+        <v>1.3800000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10246,13 +10446,13 @@
         <v>45398.166666666664</v>
       </c>
       <c r="B6">
-        <v>2.9200000000000004</v>
+        <v>1.9200000000000004</v>
       </c>
       <c r="C6">
-        <v>3.0500000000000003</v>
+        <v>2.0500000000000003</v>
       </c>
       <c r="D6">
-        <v>2.4300000000000002</v>
+        <v>1.4300000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10261,13 +10461,13 @@
         <v>45398.208333333336</v>
       </c>
       <c r="B7">
-        <v>2.8200000000000003</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="C7">
-        <v>3.2100000000000004</v>
+        <v>2.2100000000000004</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10276,13 +10476,13 @@
         <v>45398.25</v>
       </c>
       <c r="B8">
-        <v>2.7700000000000005</v>
+        <v>1.7700000000000005</v>
       </c>
       <c r="C8">
-        <v>3.0600000000000005</v>
+        <v>2.0600000000000005</v>
       </c>
       <c r="D8">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10291,13 +10491,13 @@
         <v>45398.291666666664</v>
       </c>
       <c r="B9">
-        <v>2.9400000000000004</v>
+        <v>1.9400000000000004</v>
       </c>
       <c r="C9">
-        <v>3.0900000000000003</v>
+        <v>2.0900000000000003</v>
       </c>
       <c r="D9">
-        <v>2.59</v>
+        <v>1.5899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10306,13 +10506,13 @@
         <v>45398.333333333336</v>
       </c>
       <c r="B10">
-        <v>2.8200000000000003</v>
+        <v>1.8200000000000003</v>
       </c>
       <c r="C10">
-        <v>3.1900000000000004</v>
+        <v>2.1900000000000004</v>
       </c>
       <c r="D10">
-        <v>2.44</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10321,13 +10521,13 @@
         <v>45398.375</v>
       </c>
       <c r="B11">
-        <v>2.8000000000000003</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="C11">
-        <v>3.3600000000000003</v>
+        <v>2.3600000000000003</v>
       </c>
       <c r="D11">
-        <v>2.39</v>
+        <v>1.3900000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10336,13 +10536,13 @@
         <v>45398.416666666664</v>
       </c>
       <c r="B12">
-        <v>2.7800000000000002</v>
+        <v>1.7800000000000002</v>
       </c>
       <c r="C12">
-        <v>3.5500000000000003</v>
+        <v>2.5500000000000003</v>
       </c>
       <c r="D12">
-        <v>2.4700000000000002</v>
+        <v>1.4700000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10351,13 +10551,13 @@
         <v>45398.458333333336</v>
       </c>
       <c r="B13">
-        <v>2.9000000000000004</v>
+        <v>1.9000000000000004</v>
       </c>
       <c r="C13">
-        <v>3.7500000000000004</v>
+        <v>2.7500000000000004</v>
       </c>
       <c r="D13">
-        <v>2.37</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10366,13 +10566,13 @@
         <v>45398.5</v>
       </c>
       <c r="B14">
-        <v>3.0300000000000002</v>
+        <v>2.0300000000000002</v>
       </c>
       <c r="C14">
-        <v>3.8400000000000003</v>
+        <v>2.8400000000000003</v>
       </c>
       <c r="D14">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10381,13 +10581,13 @@
         <v>45398.541666666664</v>
       </c>
       <c r="B15">
-        <v>3.1100000000000003</v>
+        <v>2.1100000000000003</v>
       </c>
       <c r="C15">
-        <v>3.8000000000000003</v>
+        <v>2.8000000000000003</v>
       </c>
       <c r="D15">
-        <v>2.44</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10396,13 +10596,13 @@
         <v>45398.583333333336</v>
       </c>
       <c r="B16">
-        <v>3.2100000000000004</v>
+        <v>2.2100000000000004</v>
       </c>
       <c r="C16">
-        <v>3.83</v>
+        <v>2.83</v>
       </c>
       <c r="D16">
-        <v>2.4499999999999997</v>
+        <v>1.4499999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10411,13 +10611,13 @@
         <v>45398.625</v>
       </c>
       <c r="B17">
-        <v>3.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D17">
-        <v>2.2899999999999996</v>
+        <v>1.2899999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10426,13 +10626,13 @@
         <v>45398.666666666664</v>
       </c>
       <c r="B18">
-        <v>3.3400000000000003</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="C18">
-        <v>3.78</v>
+        <v>2.78</v>
       </c>
       <c r="D18">
-        <v>2.1699999999999995</v>
+        <v>1.1699999999999995</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10441,13 +10641,13 @@
         <v>45398.708333333336</v>
       </c>
       <c r="B19">
-        <v>3.3100000000000005</v>
+        <v>2.3100000000000005</v>
       </c>
       <c r="C19">
-        <v>3.6599999999999997</v>
+        <v>2.6599999999999997</v>
       </c>
       <c r="D19">
-        <v>2.1299999999999994</v>
+        <v>1.1299999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10456,13 +10656,13 @@
         <v>45398.75</v>
       </c>
       <c r="B20">
-        <v>3.3500000000000005</v>
+        <v>2.3500000000000005</v>
       </c>
       <c r="C20">
-        <v>3.7099999999999995</v>
+        <v>2.7099999999999995</v>
       </c>
       <c r="D20">
-        <v>2.3099999999999996</v>
+        <v>1.3099999999999996</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10471,13 +10671,13 @@
         <v>45398.791666666664</v>
       </c>
       <c r="B21">
-        <v>3.5200000000000005</v>
+        <v>2.5200000000000005</v>
       </c>
       <c r="C21">
-        <v>3.8799999999999994</v>
+        <v>2.8799999999999994</v>
       </c>
       <c r="D21">
-        <v>2.1099999999999994</v>
+        <v>1.1099999999999994</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10486,13 +10686,13 @@
         <v>45398.833333333336</v>
       </c>
       <c r="B22">
-        <v>3.5100000000000007</v>
+        <v>2.5100000000000007</v>
       </c>
       <c r="C22">
-        <v>3.8499999999999996</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="D22">
-        <v>2.0699999999999994</v>
+        <v>1.0699999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10501,13 +10701,13 @@
         <v>45398.875</v>
       </c>
       <c r="B23">
-        <v>3.4600000000000009</v>
+        <v>2.4600000000000009</v>
       </c>
       <c r="C23">
-        <v>3.9199999999999995</v>
+        <v>2.9199999999999995</v>
       </c>
       <c r="D23">
-        <v>2.2399999999999993</v>
+        <v>1.2399999999999993</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10516,13 +10716,13 @@
         <v>45398.916666666664</v>
       </c>
       <c r="B24">
-        <v>3.5100000000000007</v>
+        <v>2.5100000000000007</v>
       </c>
       <c r="C24">
-        <v>3.7299999999999995</v>
+        <v>2.7299999999999995</v>
       </c>
       <c r="D24">
-        <v>2.4099999999999993</v>
+        <v>1.4099999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10531,13 +10731,13 @@
         <v>45398.958333333336</v>
       </c>
       <c r="B25">
-        <v>3.6400000000000006</v>
+        <v>2.6400000000000006</v>
       </c>
       <c r="C25">
-        <v>3.8099999999999996</v>
+        <v>2.8099999999999996</v>
       </c>
       <c r="D25">
-        <v>2.4099999999999993</v>
+        <v>1.4099999999999993</v>
       </c>
     </row>
   </sheetData>
@@ -10553,7 +10753,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10566,13 +10766,13 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>126</v>
-      </c>
-      <c r="D1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -10580,14 +10780,14 @@
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
-      <c r="B2">
-        <v>3.13</v>
-      </c>
-      <c r="C2">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="D2">
-        <v>4.99</v>
+      <c r="B2" s="1">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.4950000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -10595,14 +10795,14 @@
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
-      <c r="B3">
-        <v>3.23</v>
-      </c>
-      <c r="C3">
-        <v>4.8900000000000006</v>
-      </c>
-      <c r="D3">
-        <v>5.09</v>
+      <c r="B3" s="1">
+        <v>1.615</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.4450000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5449999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -10610,14 +10810,14 @@
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
-      <c r="B4">
-        <v>3.23</v>
-      </c>
-      <c r="C4">
-        <v>5.0900000000000007</v>
-      </c>
-      <c r="D4">
-        <v>4.8899999999999997</v>
+      <c r="B4" s="1">
+        <v>1.615</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.5450000000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.4449999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10625,14 +10825,14 @@
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
-      <c r="B5">
-        <v>3.53</v>
-      </c>
-      <c r="C5">
-        <v>4.9900000000000011</v>
-      </c>
-      <c r="D5">
-        <v>4.9899999999999993</v>
+      <c r="B5" s="1">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.4950000000000006</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.4949999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10640,14 +10840,14 @@
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
-      <c r="B6">
-        <v>3.4299999999999997</v>
-      </c>
-      <c r="C6">
-        <v>4.7900000000000009</v>
-      </c>
-      <c r="D6">
-        <v>5.2899999999999991</v>
+      <c r="B6" s="1">
+        <v>1.7149999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.3950000000000005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.6449999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10655,14 +10855,14 @@
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
-      <c r="B7">
-        <v>3.2299999999999995</v>
-      </c>
-      <c r="C7">
-        <v>5.0900000000000007</v>
-      </c>
-      <c r="D7">
-        <v>5.089999999999999</v>
+      <c r="B7" s="1">
+        <v>1.6149999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5450000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5449999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10670,14 +10870,14 @@
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
-      <c r="B8">
-        <v>3.0299999999999994</v>
-      </c>
-      <c r="C8">
-        <v>4.9900000000000011</v>
-      </c>
-      <c r="D8">
-        <v>5.1899999999999986</v>
+      <c r="B8" s="1">
+        <v>1.5149999999999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.4950000000000006</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5949999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10685,14 +10885,14 @@
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
-      <c r="B9">
-        <v>3.2299999999999995</v>
-      </c>
-      <c r="C9">
-        <v>5.2900000000000009</v>
-      </c>
-      <c r="D9">
-        <v>4.9899999999999984</v>
+      <c r="B9" s="1">
+        <v>1.6149999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.6450000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.4949999999999992</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10700,14 +10900,14 @@
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
-      <c r="B10">
-        <v>3.5299999999999994</v>
-      </c>
-      <c r="C10">
-        <v>5.4900000000000011</v>
-      </c>
-      <c r="D10">
-        <v>4.9899999999999984</v>
+      <c r="B10" s="1">
+        <v>1.7649999999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.7450000000000006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.4949999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10715,14 +10915,14 @@
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
-      <c r="B11">
-        <v>3.4299999999999993</v>
-      </c>
-      <c r="C11">
-        <v>5.5900000000000007</v>
-      </c>
-      <c r="D11">
-        <v>4.8899999999999988</v>
+      <c r="B11" s="1">
+        <v>1.7149999999999996</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.7950000000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.4449999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10730,14 +10930,14 @@
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
-      <c r="B12">
-        <v>3.6299999999999994</v>
-      </c>
-      <c r="C12">
-        <v>5.3900000000000006</v>
-      </c>
-      <c r="D12">
-        <v>5.089999999999999</v>
+      <c r="B12" s="1">
+        <v>1.8149999999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5449999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10745,14 +10945,14 @@
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
-      <c r="B13">
-        <v>3.9299999999999993</v>
-      </c>
-      <c r="C13">
-        <v>5.3900000000000006</v>
-      </c>
-      <c r="D13">
-        <v>4.7899999999999991</v>
+      <c r="B13" s="1">
+        <v>1.9649999999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.3949999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10760,14 +10960,14 @@
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
-      <c r="B14">
-        <v>4.0299999999999994</v>
-      </c>
-      <c r="C14">
-        <v>5.3900000000000006</v>
-      </c>
-      <c r="D14">
-        <v>4.9899999999999993</v>
+      <c r="B14" s="1">
+        <v>2.0149999999999997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.4949999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10775,14 +10975,14 @@
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
-      <c r="B15">
-        <v>3.9299999999999993</v>
-      </c>
-      <c r="C15">
-        <v>5.5900000000000007</v>
-      </c>
-      <c r="D15">
-        <v>5.2899999999999991</v>
+      <c r="B15" s="1">
+        <v>1.9649999999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.7950000000000004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.6449999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10790,14 +10990,14 @@
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
-      <c r="B16">
-        <v>4.129999999999999</v>
-      </c>
-      <c r="C16">
-        <v>5.8900000000000006</v>
-      </c>
-      <c r="D16">
-        <v>5.4899999999999993</v>
+      <c r="B16" s="1">
+        <v>2.0649999999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.7449999999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10805,14 +11005,14 @@
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
-      <c r="B17">
-        <v>4.129999999999999</v>
-      </c>
-      <c r="C17">
-        <v>5.7900000000000009</v>
-      </c>
-      <c r="D17">
-        <v>5.589999999999999</v>
+      <c r="B17" s="1">
+        <v>2.0649999999999995</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.8950000000000005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.7949999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10820,14 +11020,14 @@
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
-      <c r="B18">
-        <v>4.4299999999999988</v>
-      </c>
-      <c r="C18">
-        <v>6.0900000000000007</v>
-      </c>
-      <c r="D18">
-        <v>5.7899999999999991</v>
+      <c r="B18" s="1">
+        <v>2.2149999999999994</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.0450000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.8949999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10835,14 +11035,14 @@
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
-      <c r="B19">
-        <v>4.629999999999999</v>
-      </c>
-      <c r="C19">
-        <v>6.3900000000000006</v>
-      </c>
-      <c r="D19">
-        <v>5.8899999999999988</v>
+      <c r="B19" s="1">
+        <v>2.3149999999999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.1950000000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.9449999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10850,14 +11050,14 @@
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
-      <c r="B20">
-        <v>4.629999999999999</v>
-      </c>
-      <c r="C20">
-        <v>6.19</v>
-      </c>
-      <c r="D20">
-        <v>5.8899999999999988</v>
+      <c r="B20" s="1">
+        <v>2.3149999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.9449999999999994</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10865,14 +11065,14 @@
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
-      <c r="B21">
-        <v>4.7299999999999986</v>
-      </c>
-      <c r="C21">
-        <v>6.0900000000000007</v>
-      </c>
-      <c r="D21">
-        <v>6.089999999999999</v>
+      <c r="B21" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0450000000000004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.0449999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10880,14 +11080,14 @@
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
-      <c r="B22">
-        <v>4.5299999999999985</v>
-      </c>
-      <c r="C22">
-        <v>6.19</v>
-      </c>
-      <c r="D22">
-        <v>5.9899999999999993</v>
+      <c r="B22" s="1">
+        <v>2.2649999999999992</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.9949999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10895,14 +11095,14 @@
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
-      <c r="B23">
-        <v>4.7299999999999986</v>
-      </c>
-      <c r="C23">
-        <v>5.8900000000000006</v>
-      </c>
-      <c r="D23">
-        <v>5.7899999999999991</v>
+      <c r="B23" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.8949999999999996</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10910,14 +11110,14 @@
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
-      <c r="B24">
-        <v>4.7299999999999986</v>
-      </c>
-      <c r="C24">
-        <v>5.7900000000000009</v>
-      </c>
-      <c r="D24">
-        <v>5.7899999999999991</v>
+      <c r="B24" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.8950000000000005</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.8949999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10925,14 +11125,14 @@
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
       </c>
-      <c r="B25">
-        <v>5.0299999999999985</v>
-      </c>
-      <c r="C25">
-        <v>5.8900000000000006</v>
-      </c>
-      <c r="D25">
-        <v>5.589999999999999</v>
+      <c r="B25" s="1">
+        <v>2.5149999999999992</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.7949999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -10948,7 +11148,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10986,6 +11186,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -10999,10 +11213,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11015,7 +11229,7 @@
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -11038,22 +11252,49 @@
         <v>75</v>
       </c>
       <c r="H1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>141</v>
+      </c>
+      <c r="R1" t="s">
+        <v>144</v>
+      </c>
+      <c r="S1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
       <c r="B2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -11062,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -11071,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -11079,14 +11320,41 @@
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>-1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>-1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
       <c r="B3">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -11095,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -11104,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -11112,14 +11380,41 @@
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>-1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>-1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
       <c r="B4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -11128,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -11137,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -11145,14 +11440,41 @@
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>-1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
       <c r="B5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -11161,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -11170,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -11178,14 +11500,41 @@
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>-1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>-1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
       <c r="B6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -11194,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -11203,7 +11552,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -11211,14 +11560,41 @@
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>-1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
       <c r="B7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -11227,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -11236,7 +11612,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -11244,14 +11620,41 @@
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>-1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>-1</v>
+      </c>
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
       <c r="B8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -11260,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -11269,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -11277,14 +11680,41 @@
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
       <c r="B9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -11293,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -11302,7 +11732,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -11310,14 +11740,41 @@
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>-1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>-1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
       <c r="B10">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -11326,7 +11783,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -11335,7 +11792,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -11343,14 +11800,41 @@
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>-1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
       <c r="B11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -11359,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -11368,7 +11852,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -11376,14 +11860,41 @@
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>-1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
       <c r="B12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11392,7 +11903,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -11401,7 +11912,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -11409,14 +11920,41 @@
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>-1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
       <c r="B13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -11425,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -11434,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -11442,14 +11980,41 @@
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>-1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
       <c r="B14">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -11458,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -11467,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -11475,14 +12040,41 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>-1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>-1</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
       <c r="B15">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -11491,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -11500,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -11508,14 +12100,41 @@
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>-1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>-1</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
       <c r="B16">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -11524,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -11533,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -11541,14 +12160,41 @@
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
       <c r="B17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -11557,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -11566,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -11574,14 +12220,41 @@
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>-1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>-1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
       <c r="B18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -11590,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -11599,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -11607,14 +12280,41 @@
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>-1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>-1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>-1</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
       <c r="B19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -11623,7 +12323,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -11632,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -11640,14 +12340,41 @@
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>-1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>-1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>-1</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
       <c r="B20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -11656,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -11665,7 +12392,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -11673,14 +12400,41 @@
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>-1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>-1</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
       <c r="B21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -11689,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -11698,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -11706,14 +12460,41 @@
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>-1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>-1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
       <c r="B22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -11722,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -11731,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -11739,14 +12520,41 @@
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>-1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>-1</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
       <c r="B23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -11755,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -11764,7 +12572,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -11772,14 +12580,41 @@
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>-1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>-1</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
       <c r="B24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -11788,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -11797,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -11805,14 +12640,41 @@
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>-1</v>
+      </c>
+      <c r="R24">
+        <v>1</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
       </c>
       <c r="B25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -11821,7 +12683,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -11830,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -11838,8 +12700,36 @@
       <c r="J25">
         <v>0</v>
       </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>-1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>-1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11889,7 +12779,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -11904,13 +12794,13 @@
         <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>53</v>
@@ -12018,7 +12908,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -12117,8 +13007,8 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>124</v>
+      <c r="A6" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -12177,7 +13067,7 @@
   <dimension ref="A1:Q221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12243,7 +13133,7 @@
         <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>45</v>
@@ -12269,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H2" s="7">
         <v>0.4</v>
@@ -12304,7 +13194,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -12322,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -12357,7 +13247,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -12375,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -12410,7 +13300,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -12463,7 +13353,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -12516,7 +13406,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -12569,7 +13459,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -13296,7 +14186,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -13307,7 +14197,7 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -13315,10 +14205,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -13326,10 +14216,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -13337,10 +14227,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -13348,10 +14238,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -13359,10 +14249,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -13434,7 +14324,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13476,10 +14366,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -13580,7 +14470,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -13612,13 +14502,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -13644,7 +14534,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -13676,7 +14566,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -13708,7 +14598,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -13740,7 +14630,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -13772,13 +14662,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -13804,13 +14694,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -13836,7 +14726,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
@@ -13868,7 +14758,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -13900,7 +14790,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -13932,7 +14822,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -14153,19 +15043,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="C1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/simple_dh_model.xlsx
+++ b/input_data/simple_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F46FFD7-E1B6-4F6E-B006-EBB1169386FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A4CBC8-67FD-47C6-9BA3-B5D4C4860ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="4" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="9" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="risk" sheetId="17" r:id="rId20"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId20"/>
+    <sheet name="risk" sheetId="17" r:id="rId21"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
   <si>
     <t>node</t>
   </si>
@@ -6935,206 +6936,206 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45398.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45398.083333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45398.125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45398.166666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45398.208333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45398.25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>45398.958333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -7151,12 +7152,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>93</v>
       </c>
@@ -7181,9 +7182,9 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -7204,15 +7205,15 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -7243,7 +7244,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -7258,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -7273,7 +7274,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -7288,7 +7289,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -7303,7 +7304,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -7318,7 +7319,7 @@
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -7333,7 +7334,7 @@
         <v>0.18000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -7348,7 +7349,7 @@
         <v>0.19000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -7363,7 +7364,7 @@
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -7378,7 +7379,7 @@
         <v>2.0000000000000032E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -7393,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -7408,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -7423,7 +7424,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -7438,7 +7439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -7453,7 +7454,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -7468,7 +7469,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -7483,7 +7484,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -7498,7 +7499,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -7513,7 +7514,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -7528,7 +7529,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -7543,7 +7544,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -7558,7 +7559,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -7573,7 +7574,7 @@
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -7604,14 +7605,14 @@
       <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -7641,7 +7642,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -7657,7 +7658,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -7673,7 +7674,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -7689,7 +7690,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -7705,7 +7706,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -7721,7 +7722,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -7737,7 +7738,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -7753,7 +7754,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -7769,7 +7770,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -7785,7 +7786,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -7801,7 +7802,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -7817,7 +7818,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -7833,7 +7834,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -7849,7 +7850,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -7865,7 +7866,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -7881,7 +7882,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -7897,7 +7898,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -7913,7 +7914,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -7929,7 +7930,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -7945,7 +7946,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -7961,7 +7962,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -7977,7 +7978,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -7993,7 +7994,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -8025,82 +8026,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -8119,12 +8120,12 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -8147,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -8159,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -8171,7 +8172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -8183,7 +8184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -8195,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -8207,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -8219,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -8231,7 +8232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -8243,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -8255,7 +8256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -8267,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -8279,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -8291,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -8303,7 +8304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -8315,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -8327,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -8339,7 +8340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -8351,7 +8352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -8363,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -8375,7 +8376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -8387,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -8399,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -8411,7 +8412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -8437,19 +8438,19 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="7"/>
+    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -8487,7 +8488,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -8525,13 +8526,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -8545,195 +8546,195 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
         <v/>
@@ -8752,14 +8753,14 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="11.44140625" customWidth="1"/>
-    <col min="6" max="10" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -8773,7 +8774,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -8788,7 +8789,7 @@
         <v>17.77</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -8803,7 +8804,7 @@
         <v>19.13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -8818,7 +8819,7 @@
         <v>20.420000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -8833,7 +8834,7 @@
         <v>20.310000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -8848,7 +8849,7 @@
         <v>45.484999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -8863,7 +8864,7 @@
         <v>62.994999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -8878,7 +8879,7 @@
         <v>77.465000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -8893,7 +8894,7 @@
         <v>83.14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -8908,7 +8909,7 @@
         <v>83.025000000000006</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -8923,7 +8924,7 @@
         <v>83.545000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -8938,7 +8939,7 @@
         <v>81.41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -8953,7 +8954,7 @@
         <v>80.89</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -8968,7 +8969,7 @@
         <v>77.045000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -8983,7 +8984,7 @@
         <v>76.38</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -8998,7 +8999,7 @@
         <v>80.924999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -9013,7 +9014,7 @@
         <v>81.974999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -9028,7 +9029,7 @@
         <v>85.38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -9043,7 +9044,7 @@
         <v>83.13000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -9058,7 +9059,7 @@
         <v>76.64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -9073,7 +9074,7 @@
         <v>73.204999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -9088,7 +9089,7 @@
         <v>65.674999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -9103,7 +9104,7 @@
         <v>56.98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -9118,7 +9119,7 @@
         <v>42.255000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -9133,37 +9134,37 @@
         <v>47.835000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
         <v/>
@@ -9185,15 +9186,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -9217,7 +9218,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -9247,7 +9248,7 @@
         <v>17.759999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -9277,7 +9278,7 @@
         <v>19.119999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -9307,7 +9308,7 @@
         <v>20.41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -9337,7 +9338,7 @@
         <v>20.3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -9367,7 +9368,7 @@
         <v>45.475000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -9397,7 +9398,7 @@
         <v>62.984999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -9427,7 +9428,7 @@
         <v>77.454999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -9457,7 +9458,7 @@
         <v>83.13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -9487,7 +9488,7 @@
         <v>83.015000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -9517,7 +9518,7 @@
         <v>83.534999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -9547,7 +9548,7 @@
         <v>81.399999999999991</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -9577,7 +9578,7 @@
         <v>80.88</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -9607,7 +9608,7 @@
         <v>77.034999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -9637,7 +9638,7 @@
         <v>76.36999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -9667,7 +9668,7 @@
         <v>80.914999999999992</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -9697,7 +9698,7 @@
         <v>81.964999999999989</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -9727,7 +9728,7 @@
         <v>85.36999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -9757,7 +9758,7 @@
         <v>83.12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -9787,7 +9788,7 @@
         <v>76.63</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -9817,7 +9818,7 @@
         <v>73.194999999999993</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -9847,7 +9848,7 @@
         <v>65.664999999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -9877,7 +9878,7 @@
         <v>56.97</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -9907,7 +9908,7 @@
         <v>42.245000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -9937,49 +9938,49 @@
         <v>47.825000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f>IF(timeseries!A32&lt;&gt;"",timeseries!A32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="str">
         <f>IF(timeseries!A33&lt;&gt;"",timeseries!A33,"")</f>
         <v/>
@@ -10000,13 +10001,13 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -10014,7 +10015,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -10022,7 +10023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
       </c>
@@ -10030,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>105</v>
       </c>
@@ -10046,7 +10047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -10054,7 +10055,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>134</v>
       </c>
@@ -10070,7 +10071,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -10078,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -10090,6 +10091,261 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAAB801-9877-463F-8AD6-7230B4E2C7B0}">
+  <dimension ref="A1:BA31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10097,12 +10353,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -10110,7 +10366,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -10118,7 +10374,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -10131,7 +10387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -10139,9 +10395,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -10149,7 +10405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -10157,7 +10413,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -10165,7 +10421,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -10178,7 +10434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -10186,162 +10442,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -10352,7 +10608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -10360,13 +10616,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -10380,7 +10636,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -10395,7 +10651,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -10410,7 +10666,7 @@
         <v>1.6400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -10425,7 +10681,7 @@
         <v>1.5700000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -10440,7 +10696,7 @@
         <v>1.3800000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -10455,7 +10711,7 @@
         <v>1.4300000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -10470,7 +10726,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -10485,7 +10741,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -10500,7 +10756,7 @@
         <v>1.5899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -10515,7 +10771,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -10530,7 +10786,7 @@
         <v>1.3900000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -10545,7 +10801,7 @@
         <v>1.4700000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -10560,7 +10816,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -10575,7 +10831,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -10590,7 +10846,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -10605,7 +10861,7 @@
         <v>1.4499999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -10620,7 +10876,7 @@
         <v>1.2899999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -10635,7 +10891,7 @@
         <v>1.1699999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -10650,7 +10906,7 @@
         <v>1.1299999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -10665,7 +10921,7 @@
         <v>1.3099999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -10680,7 +10936,7 @@
         <v>1.1099999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -10695,7 +10951,7 @@
         <v>1.0699999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -10710,7 +10966,7 @@
         <v>1.2399999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -10725,7 +10981,7 @@
         <v>1.4099999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -10738,401 +10994,6 @@
       </c>
       <c r="D25">
         <v>1.4099999999999993</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>45398</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.5649999999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2.3450000000000002</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.4950000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>45398.041666666664</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.615</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2.4450000000000003</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.5449999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>45398.083333333336</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.615</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.5450000000000004</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.4449999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>45398.125</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.7649999999999999</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.4950000000000006</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.4949999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>45398.166666666664</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.7149999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2.3950000000000005</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.6449999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>45398.208333333336</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.6149999999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2.5450000000000004</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.5449999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>45398.25</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.5149999999999997</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2.4950000000000006</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.5949999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>45398.291666666664</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.6149999999999998</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2.6450000000000005</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.4949999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>45398.333333333336</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.7649999999999997</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2.7450000000000006</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.4949999999999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>45398.375</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.7149999999999996</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2.7950000000000004</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.4449999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>45398.416666666664</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1.8149999999999997</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2.6950000000000003</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.5449999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>45398.458333333336</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1.9649999999999996</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2.6950000000000003</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.3949999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>45398.5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.0149999999999997</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.6950000000000003</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.4949999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>45398.541666666664</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.9649999999999996</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.7950000000000004</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.6449999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>45398.583333333336</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2.0649999999999995</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.9450000000000003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.7449999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>45398.625</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.0649999999999995</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.8950000000000005</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.7949999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>45398.666666666664</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.2149999999999994</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.0450000000000004</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.8949999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>45398.708333333336</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.3149999999999995</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.1950000000000003</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.9449999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>45398.75</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.3149999999999995</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.9449999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>45398.791666666664</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.3649999999999993</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0450000000000004</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3.0449999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>45398.833333333336</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2.2649999999999992</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2.9949999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>45398.875</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.3649999999999993</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.9450000000000003</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.8949999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>45398.916666666664</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.3649999999999993</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.8950000000000005</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.8949999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>45398.958333333336</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.5149999999999992</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2.9450000000000003</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.7949999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -11144,6 +11005,401 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.3450000000000002</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.615</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.4450000000000003</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5449999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.615</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2.5450000000000004</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.4449999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.7649999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.4950000000000006</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.4949999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.7149999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.3950000000000005</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.6449999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.6149999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.5450000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5449999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5149999999999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2.4950000000000006</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5949999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.6149999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.6450000000000005</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.4949999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.7649999999999997</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2.7450000000000006</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.4949999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.7149999999999996</v>
+      </c>
+      <c r="C11" s="1">
+        <v>2.7950000000000004</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.4449999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.8149999999999997</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5449999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.9649999999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.3949999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0149999999999997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.4949999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.9649999999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.7950000000000004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.6449999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.0649999999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.7449999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0649999999999995</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.8950000000000005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.7949999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.2149999999999994</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.0450000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.8949999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.3149999999999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.1950000000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.9449999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.3149999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.9449999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0450000000000004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.0449999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.2649999999999992</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.9949999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.8949999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.8950000000000005</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.8949999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.5149999999999992</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.7949999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -11151,14 +11407,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -11172,7 +11428,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -11186,7 +11442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>135</v>
       </c>
@@ -11200,7 +11456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -11211,7 +11467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:S25"/>
   <sheetViews>
@@ -11219,17 +11475,17 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -11288,7 +11544,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -11348,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -11408,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -11468,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -11528,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -11588,7 +11844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -11648,7 +11904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -11708,7 +11964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -11768,7 +12024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -11828,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -11888,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -11948,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -12008,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -12068,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -12128,7 +12384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -12188,7 +12444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -12248,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -12308,7 +12564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -12368,7 +12624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -12428,7 +12684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -12488,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -12548,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -12608,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -12668,7 +12924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -12743,20 +12999,20 @@
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -12806,7 +13062,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -12856,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -12906,7 +13162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -12956,7 +13212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -13006,7 +13262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>123</v>
       </c>
@@ -13070,23 +13326,23 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="3"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -13139,7 +13395,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -13192,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>130</v>
       </c>
@@ -13245,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>131</v>
       </c>
@@ -13298,7 +13554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -13351,7 +13607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -13404,7 +13660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -13457,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -13510,643 +13766,643 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P44" s="7"/>
     </row>
-    <row r="45" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P45" s="7"/>
     </row>
-    <row r="46" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P46" s="7"/>
     </row>
-    <row r="47" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P47" s="7"/>
     </row>
-    <row r="48" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P55" s="7"/>
     </row>
-    <row r="56" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P56" s="7"/>
     </row>
-    <row r="57" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P57" s="7"/>
     </row>
-    <row r="58" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P59" s="7"/>
     </row>
-    <row r="60" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P60" s="7"/>
     </row>
-    <row r="61" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P61" s="7"/>
     </row>
-    <row r="62" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P64" s="7"/>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P72" s="7"/>
     </row>
-    <row r="73" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P73" s="7"/>
     </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P74" s="7"/>
     </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P75" s="7"/>
     </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P76" s="7"/>
     </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P77" s="7"/>
     </row>
-    <row r="78" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P78" s="7"/>
     </row>
-    <row r="79" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P79" s="7"/>
     </row>
-    <row r="80" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P80" s="7"/>
     </row>
-    <row r="81" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P81" s="7"/>
     </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P82" s="7"/>
     </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P83" s="7"/>
     </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P84" s="7"/>
     </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P85" s="7"/>
     </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P86" s="7"/>
     </row>
-    <row r="87" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P87" s="7"/>
     </row>
-    <row r="88" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P88" s="7"/>
     </row>
-    <row r="89" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P89" s="7"/>
     </row>
-    <row r="90" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P90" s="7"/>
     </row>
-    <row r="91" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P92" s="7"/>
     </row>
-    <row r="93" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P93" s="7"/>
     </row>
-    <row r="94" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P94" s="7"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="7"/>
     </row>
-    <row r="96" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P96" s="7"/>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P97" s="7"/>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P98" s="7"/>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P99" s="7"/>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P100" s="7"/>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P101" s="7"/>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P102" s="7"/>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P103" s="7"/>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P104" s="7"/>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P105" s="7"/>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P106" s="7"/>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P107" s="7"/>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P108" s="7"/>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P109" s="7"/>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P110" s="7"/>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P111" s="7"/>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P112" s="7"/>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P113" s="7"/>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P114" s="7"/>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P115" s="7"/>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P116" s="7"/>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P118" s="7"/>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P119" s="7"/>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P120" s="7"/>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P121" s="7"/>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P122" s="7"/>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P123" s="7"/>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P124" s="7"/>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P125" s="7"/>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P126" s="7"/>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" s="7"/>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P128" s="7"/>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P129" s="7"/>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P130" s="7"/>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P131" s="7"/>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P132" s="7"/>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P133" s="7"/>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P134" s="7"/>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P135" s="7"/>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P136" s="7"/>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P137" s="7"/>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P138" s="7"/>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P139" s="7"/>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P140" s="7"/>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P141" s="7"/>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P142" s="7"/>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P143" s="7"/>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P144" s="7"/>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145" s="7"/>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P146" s="7"/>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P147" s="7"/>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P148" s="7"/>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P149" s="7"/>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P150" s="7"/>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P151" s="7"/>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P152" s="7"/>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P153" s="7"/>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P154" s="7"/>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P155" s="7"/>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P156" s="7"/>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P157" s="7"/>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P158" s="7"/>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P159" s="7"/>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P160" s="7"/>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P161" s="7"/>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P162" s="7"/>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P163" s="7"/>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P164" s="7"/>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P165" s="7"/>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P166" s="7"/>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P167" s="7"/>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P168" s="7"/>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P169" s="7"/>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P170" s="7"/>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P171" s="7"/>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P172" s="7"/>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P173" s="7"/>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P174" s="7"/>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P175" s="7"/>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P176" s="7"/>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P177" s="7"/>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P178" s="7"/>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P180" s="7"/>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P181" s="7"/>
     </row>
-    <row r="182" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P182" s="7"/>
     </row>
-    <row r="183" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P183" s="7"/>
     </row>
-    <row r="184" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P184" s="7"/>
     </row>
-    <row r="185" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P185" s="7"/>
     </row>
-    <row r="186" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P186" s="7"/>
     </row>
-    <row r="187" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P187" s="7"/>
     </row>
-    <row r="188" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P188" s="7"/>
     </row>
-    <row r="189" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P189" s="7"/>
     </row>
-    <row r="190" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P190" s="7"/>
     </row>
-    <row r="191" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P191" s="7"/>
     </row>
-    <row r="192" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P192" s="7"/>
     </row>
-    <row r="193" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P193" s="7"/>
     </row>
-    <row r="194" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P194" s="7"/>
     </row>
-    <row r="195" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P195" s="7"/>
     </row>
-    <row r="196" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P196" s="7"/>
     </row>
-    <row r="197" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P197" s="7"/>
     </row>
-    <row r="198" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P198" s="7"/>
     </row>
-    <row r="199" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P199" s="7"/>
     </row>
-    <row r="200" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P200" s="7"/>
     </row>
-    <row r="201" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P201" s="7"/>
     </row>
-    <row r="202" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P202" s="7"/>
     </row>
-    <row r="203" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P203" s="7"/>
     </row>
-    <row r="204" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P204" s="7"/>
     </row>
-    <row r="205" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P205" s="7"/>
     </row>
-    <row r="206" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P206" s="7"/>
     </row>
-    <row r="207" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P207" s="7"/>
     </row>
-    <row r="208" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P208" s="7"/>
     </row>
-    <row r="209" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P209" s="7"/>
     </row>
-    <row r="210" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P210" s="7"/>
     </row>
-    <row r="211" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P211" s="7"/>
     </row>
-    <row r="212" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P212" s="7"/>
     </row>
-    <row r="213" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P213" s="7"/>
     </row>
-    <row r="214" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P214" s="7"/>
     </row>
-    <row r="215" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P215" s="7"/>
     </row>
-    <row r="216" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P216" s="7"/>
     </row>
-    <row r="217" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P217" s="7"/>
     </row>
-    <row r="218" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P218" s="7"/>
     </row>
-    <row r="219" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P219" s="7"/>
     </row>
-    <row r="220" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P220" s="7"/>
     </row>
-    <row r="221" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P221" s="7"/>
     </row>
   </sheetData>
@@ -14162,12 +14418,12 @@
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -14178,7 +14434,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14189,7 +14445,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -14200,7 +14456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -14211,7 +14467,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -14222,7 +14478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -14233,7 +14489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -14244,7 +14500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -14268,9 +14524,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -14327,20 +14583,20 @@
       <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -14372,7 +14628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -14404,7 +14660,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
@@ -14436,7 +14692,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -14468,7 +14724,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>130</v>
       </c>
@@ -14500,7 +14756,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -14532,7 +14788,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>130</v>
       </c>
@@ -14564,7 +14820,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>131</v>
       </c>
@@ -14596,7 +14852,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -14628,7 +14884,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -14660,7 +14916,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -14692,7 +14948,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>116</v>
       </c>
@@ -14724,7 +14980,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>116</v>
       </c>
@@ -14756,7 +15012,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>114</v>
       </c>
@@ -14788,7 +15044,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>117</v>
       </c>
@@ -14820,7 +15076,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>117</v>
       </c>
@@ -14867,155 +15123,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -15034,14 +15290,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>93</v>
       </c>

--- a/input_data/simple_dh_model.xlsx
+++ b/input_data/simple_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A4CBC8-67FD-47C6-9BA3-B5D4C4860ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29172C2B-90DB-416A-A284-509A7E9205C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="9" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -29,17 +29,18 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId14"/>
     <sheet name="price" sheetId="4" r:id="rId15"/>
     <sheet name="markets" sheetId="5" r:id="rId16"/>
-    <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId18"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="reserve_activation_price" sheetId="28" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
-    <sheet name="constraints" sheetId="14" r:id="rId26"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="bid_slots" sheetId="29" r:id="rId17"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId18"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId19"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId20"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
+    <sheet name="constraints" sheetId="14" r:id="rId27"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>node</t>
   </si>
@@ -8542,11 +8543,214 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C35028-EB47-4372-84A9-B7FA5BC5A465}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8745,7 +8949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -9175,821 +9379,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:H33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>45398</v>
-      </c>
-      <c r="B2">
-        <f>market_prices!B2+0.01</f>
-        <v>16.440000000000001</v>
-      </c>
-      <c r="C2">
-        <f>market_prices!C2+0.01</f>
-        <v>24.26</v>
-      </c>
-      <c r="D2">
-        <f>market_prices!D2+0.01</f>
-        <v>17.78</v>
-      </c>
-      <c r="E2">
-        <f>market_prices!B2-0.01</f>
-        <v>16.419999999999998</v>
-      </c>
-      <c r="F2">
-        <f>market_prices!C2-0.01</f>
-        <v>24.24</v>
-      </c>
-      <c r="G2">
-        <f>market_prices!D2-0.01</f>
-        <v>17.759999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>45398.041666666664</v>
-      </c>
-      <c r="B3">
-        <f>market_prices!B3+0.01</f>
-        <v>7.66</v>
-      </c>
-      <c r="C3">
-        <f>market_prices!C3+0.01</f>
-        <v>22.59</v>
-      </c>
-      <c r="D3">
-        <f>market_prices!D3+0.01</f>
-        <v>19.14</v>
-      </c>
-      <c r="E3">
-        <f>market_prices!B3-0.01</f>
-        <v>7.6400000000000006</v>
-      </c>
-      <c r="F3">
-        <f>market_prices!C3-0.01</f>
-        <v>22.569999999999997</v>
-      </c>
-      <c r="G3">
-        <f>market_prices!D3-0.01</f>
-        <v>19.119999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>45398.083333333336</v>
-      </c>
-      <c r="B4">
-        <f>market_prices!B4+0.01</f>
-        <v>2.1399999999999997</v>
-      </c>
-      <c r="C4">
-        <f>market_prices!C4+0.01</f>
-        <v>24.540000000000003</v>
-      </c>
-      <c r="D4">
-        <f>market_prices!D4+0.01</f>
-        <v>20.430000000000003</v>
-      </c>
-      <c r="E4">
-        <f>market_prices!B4-0.01</f>
-        <v>2.12</v>
-      </c>
-      <c r="F4">
-        <f>market_prices!C4-0.01</f>
-        <v>24.52</v>
-      </c>
-      <c r="G4">
-        <f>market_prices!D4-0.01</f>
-        <v>20.41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>45398.125</v>
-      </c>
-      <c r="B5">
-        <f>market_prices!B5+0.01</f>
-        <v>2.84</v>
-      </c>
-      <c r="C5">
-        <f>market_prices!C5+0.01</f>
-        <v>25.89</v>
-      </c>
-      <c r="D5">
-        <f>market_prices!D5+0.01</f>
-        <v>20.320000000000004</v>
-      </c>
-      <c r="E5">
-        <f>market_prices!B5-0.01</f>
-        <v>2.8200000000000003</v>
-      </c>
-      <c r="F5">
-        <f>market_prices!C5-0.01</f>
-        <v>25.869999999999997</v>
-      </c>
-      <c r="G5">
-        <f>market_prices!D5-0.01</f>
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>45398.166666666664</v>
-      </c>
-      <c r="B6">
-        <f>market_prices!B6+0.01</f>
-        <v>3.55</v>
-      </c>
-      <c r="C6">
-        <f>market_prices!C6+0.01</f>
-        <v>26.55</v>
-      </c>
-      <c r="D6">
-        <f>market_prices!D6+0.01</f>
-        <v>45.494999999999997</v>
-      </c>
-      <c r="E6">
-        <f>market_prices!B6-0.01</f>
-        <v>3.5300000000000002</v>
-      </c>
-      <c r="F6">
-        <f>market_prices!C6-0.01</f>
-        <v>26.529999999999998</v>
-      </c>
-      <c r="G6">
-        <f>market_prices!D6-0.01</f>
-        <v>45.475000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>45398.208333333336</v>
-      </c>
-      <c r="B7">
-        <f>market_prices!B7+0.01</f>
-        <v>17.78</v>
-      </c>
-      <c r="C7">
-        <f>market_prices!C7+0.01</f>
-        <v>27.92</v>
-      </c>
-      <c r="D7">
-        <f>market_prices!D7+0.01</f>
-        <v>63.004999999999995</v>
-      </c>
-      <c r="E7">
-        <f>market_prices!B7-0.01</f>
-        <v>17.759999999999998</v>
-      </c>
-      <c r="F7">
-        <f>market_prices!C7-0.01</f>
-        <v>27.9</v>
-      </c>
-      <c r="G7">
-        <f>market_prices!D7-0.01</f>
-        <v>62.984999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>45398.25</v>
-      </c>
-      <c r="B8">
-        <f>market_prices!B8+0.01</f>
-        <v>17.899999999999999</v>
-      </c>
-      <c r="C8">
-        <f>market_prices!C8+0.01</f>
-        <v>49.569999999999993</v>
-      </c>
-      <c r="D8">
-        <f>market_prices!D8+0.01</f>
-        <v>77.475000000000009</v>
-      </c>
-      <c r="E8">
-        <f>market_prices!B8-0.01</f>
-        <v>17.879999999999995</v>
-      </c>
-      <c r="F8">
-        <f>market_prices!C8-0.01</f>
-        <v>49.55</v>
-      </c>
-      <c r="G8">
-        <f>market_prices!D8-0.01</f>
-        <v>77.454999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>45398.291666666664</v>
-      </c>
-      <c r="B9">
-        <f>market_prices!B9+0.01</f>
-        <v>25.490000000000002</v>
-      </c>
-      <c r="C9">
-        <f>market_prices!C9+0.01</f>
-        <v>56.23</v>
-      </c>
-      <c r="D9">
-        <f>market_prices!D9+0.01</f>
-        <v>83.15</v>
-      </c>
-      <c r="E9">
-        <f>market_prices!B9-0.01</f>
-        <v>25.47</v>
-      </c>
-      <c r="F9">
-        <f>market_prices!C9-0.01</f>
-        <v>56.21</v>
-      </c>
-      <c r="G9">
-        <f>market_prices!D9-0.01</f>
-        <v>83.13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>45398.333333333336</v>
-      </c>
-      <c r="B10">
-        <f>market_prices!B10+0.01</f>
-        <v>24.250000000000004</v>
-      </c>
-      <c r="C10">
-        <f>market_prices!C10+0.01</f>
-        <v>50.23</v>
-      </c>
-      <c r="D10">
-        <f>market_prices!D10+0.01</f>
-        <v>83.035000000000011</v>
-      </c>
-      <c r="E10">
-        <f>market_prices!B10-0.01</f>
-        <v>24.23</v>
-      </c>
-      <c r="F10">
-        <f>market_prices!C10-0.01</f>
-        <v>50.21</v>
-      </c>
-      <c r="G10">
-        <f>market_prices!D10-0.01</f>
-        <v>83.015000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>45398.375</v>
-      </c>
-      <c r="B11">
-        <f>market_prices!B11+0.01</f>
-        <v>24.720000000000002</v>
-      </c>
-      <c r="C11">
-        <f>market_prices!C11+0.01</f>
-        <v>56.309999999999995</v>
-      </c>
-      <c r="D11">
-        <f>market_prices!D11+0.01</f>
-        <v>83.555000000000007</v>
-      </c>
-      <c r="E11">
-        <f>market_prices!B11-0.01</f>
-        <v>24.7</v>
-      </c>
-      <c r="F11">
-        <f>market_prices!C11-0.01</f>
-        <v>56.29</v>
-      </c>
-      <c r="G11">
-        <f>market_prices!D11-0.01</f>
-        <v>83.534999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>45398.416666666664</v>
-      </c>
-      <c r="B12">
-        <f>market_prices!B12+0.01</f>
-        <v>26.750000000000004</v>
-      </c>
-      <c r="C12">
-        <f>market_prices!C12+0.01</f>
-        <v>56.24</v>
-      </c>
-      <c r="D12">
-        <f>market_prices!D12+0.01</f>
-        <v>81.42</v>
-      </c>
-      <c r="E12">
-        <f>market_prices!B12-0.01</f>
-        <v>26.73</v>
-      </c>
-      <c r="F12">
-        <f>market_prices!C12-0.01</f>
-        <v>56.220000000000006</v>
-      </c>
-      <c r="G12">
-        <f>market_prices!D12-0.01</f>
-        <v>81.399999999999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>45398.458333333336</v>
-      </c>
-      <c r="B13">
-        <f>market_prices!B13+0.01</f>
-        <v>23.86</v>
-      </c>
-      <c r="C13">
-        <f>market_prices!C13+0.01</f>
-        <v>51.879999999999995</v>
-      </c>
-      <c r="D13">
-        <f>market_prices!D13+0.01</f>
-        <v>80.900000000000006</v>
-      </c>
-      <c r="E13">
-        <f>market_prices!B13-0.01</f>
-        <v>23.839999999999996</v>
-      </c>
-      <c r="F13">
-        <f>market_prices!C13-0.01</f>
-        <v>51.86</v>
-      </c>
-      <c r="G13">
-        <f>market_prices!D13-0.01</f>
-        <v>80.88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>45398.5</v>
-      </c>
-      <c r="B14">
-        <f>market_prices!B14+0.01</f>
-        <v>25.46</v>
-      </c>
-      <c r="C14">
-        <f>market_prices!C14+0.01</f>
-        <v>56.44</v>
-      </c>
-      <c r="D14">
-        <f>market_prices!D14+0.01</f>
-        <v>77.055000000000007</v>
-      </c>
-      <c r="E14">
-        <f>market_prices!B14-0.01</f>
-        <v>25.439999999999998</v>
-      </c>
-      <c r="F14">
-        <f>market_prices!C14-0.01</f>
-        <v>56.42</v>
-      </c>
-      <c r="G14">
-        <f>market_prices!D14-0.01</f>
-        <v>77.034999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>45398.541666666664</v>
-      </c>
-      <c r="B15">
-        <f>market_prices!B15+0.01</f>
-        <v>27.34</v>
-      </c>
-      <c r="C15">
-        <f>market_prices!C15+0.01</f>
-        <v>59.4</v>
-      </c>
-      <c r="D15">
-        <f>market_prices!D15+0.01</f>
-        <v>76.39</v>
-      </c>
-      <c r="E15">
-        <f>market_prices!B15-0.01</f>
-        <v>27.319999999999997</v>
-      </c>
-      <c r="F15">
-        <f>market_prices!C15-0.01</f>
-        <v>59.38</v>
-      </c>
-      <c r="G15">
-        <f>market_prices!D15-0.01</f>
-        <v>76.36999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>45398.583333333336</v>
-      </c>
-      <c r="B16">
-        <f>market_prices!B16+0.01</f>
-        <v>25.37</v>
-      </c>
-      <c r="C16">
-        <f>market_prices!C16+0.01</f>
-        <v>56.44</v>
-      </c>
-      <c r="D16">
-        <f>market_prices!D16+0.01</f>
-        <v>80.935000000000002</v>
-      </c>
-      <c r="E16">
-        <f>market_prices!B16-0.01</f>
-        <v>25.349999999999998</v>
-      </c>
-      <c r="F16">
-        <f>market_prices!C16-0.01</f>
-        <v>56.42</v>
-      </c>
-      <c r="G16">
-        <f>market_prices!D16-0.01</f>
-        <v>80.914999999999992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>45398.625</v>
-      </c>
-      <c r="B17">
-        <f>market_prices!B17+0.01</f>
-        <v>29.59</v>
-      </c>
-      <c r="C17">
-        <f>market_prices!C17+0.01</f>
-        <v>61.309999999999995</v>
-      </c>
-      <c r="D17">
-        <f>market_prices!D17+0.01</f>
-        <v>81.984999999999999</v>
-      </c>
-      <c r="E17">
-        <f>market_prices!B17-0.01</f>
-        <v>29.569999999999997</v>
-      </c>
-      <c r="F17">
-        <f>market_prices!C17-0.01</f>
-        <v>61.29</v>
-      </c>
-      <c r="G17">
-        <f>market_prices!D17-0.01</f>
-        <v>81.964999999999989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>45398.666666666664</v>
-      </c>
-      <c r="B18">
-        <f>market_prices!B18+0.01</f>
-        <v>28.89</v>
-      </c>
-      <c r="C18">
-        <f>market_prices!C18+0.01</f>
-        <v>63.33</v>
-      </c>
-      <c r="D18">
-        <f>market_prices!D18+0.01</f>
-        <v>85.39</v>
-      </c>
-      <c r="E18">
-        <f>market_prices!B18-0.01</f>
-        <v>28.869999999999997</v>
-      </c>
-      <c r="F18">
-        <f>market_prices!C18-0.01</f>
-        <v>63.31</v>
-      </c>
-      <c r="G18">
-        <f>market_prices!D18-0.01</f>
-        <v>85.36999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>45398.708333333336</v>
-      </c>
-      <c r="B19">
-        <f>market_prices!B19+0.01</f>
-        <v>27.430000000000003</v>
-      </c>
-      <c r="C19">
-        <f>market_prices!C19+0.01</f>
-        <v>60.26</v>
-      </c>
-      <c r="D19">
-        <f>market_prices!D19+0.01</f>
-        <v>83.140000000000015</v>
-      </c>
-      <c r="E19">
-        <f>market_prices!B19-0.01</f>
-        <v>27.41</v>
-      </c>
-      <c r="F19">
-        <f>market_prices!C19-0.01</f>
-        <v>60.24</v>
-      </c>
-      <c r="G19">
-        <f>market_prices!D19-0.01</f>
-        <v>83.12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>45398.75</v>
-      </c>
-      <c r="B20">
-        <f>market_prices!B20+0.01</f>
-        <v>28.320000000000004</v>
-      </c>
-      <c r="C20">
-        <f>market_prices!C20+0.01</f>
-        <v>51.94</v>
-      </c>
-      <c r="D20">
-        <f>market_prices!D20+0.01</f>
-        <v>76.650000000000006</v>
-      </c>
-      <c r="E20">
-        <f>market_prices!B20-0.01</f>
-        <v>28.3</v>
-      </c>
-      <c r="F20">
-        <f>market_prices!C20-0.01</f>
-        <v>51.92</v>
-      </c>
-      <c r="G20">
-        <f>market_prices!D20-0.01</f>
-        <v>76.63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>45398.791666666664</v>
-      </c>
-      <c r="B21">
-        <f>market_prices!B21+0.01</f>
-        <v>26.21</v>
-      </c>
-      <c r="C21">
-        <f>market_prices!C21+0.01</f>
-        <v>37.089999999999996</v>
-      </c>
-      <c r="D21">
-        <f>market_prices!D21+0.01</f>
-        <v>73.215000000000003</v>
-      </c>
-      <c r="E21">
-        <f>market_prices!B21-0.01</f>
-        <v>26.189999999999998</v>
-      </c>
-      <c r="F21">
-        <f>market_prices!C21-0.01</f>
-        <v>37.07</v>
-      </c>
-      <c r="G21">
-        <f>market_prices!D21-0.01</f>
-        <v>73.194999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>45398.833333333336</v>
-      </c>
-      <c r="B22">
-        <f>market_prices!B22+0.01</f>
-        <v>28.78</v>
-      </c>
-      <c r="C22">
-        <f>market_prices!C22+0.01</f>
-        <v>36.799999999999997</v>
-      </c>
-      <c r="D22">
-        <f>market_prices!D22+0.01</f>
-        <v>65.685000000000002</v>
-      </c>
-      <c r="E22">
-        <f>market_prices!B22-0.01</f>
-        <v>28.759999999999998</v>
-      </c>
-      <c r="F22">
-        <f>market_prices!C22-0.01</f>
-        <v>36.78</v>
-      </c>
-      <c r="G22">
-        <f>market_prices!D22-0.01</f>
-        <v>65.664999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>45398.875</v>
-      </c>
-      <c r="B23">
-        <f>market_prices!B23+0.01</f>
-        <v>27.080000000000002</v>
-      </c>
-      <c r="C23">
-        <f>market_prices!C23+0.01</f>
-        <v>31.76</v>
-      </c>
-      <c r="D23">
-        <f>market_prices!D23+0.01</f>
-        <v>56.989999999999995</v>
-      </c>
-      <c r="E23">
-        <f>market_prices!B23-0.01</f>
-        <v>27.06</v>
-      </c>
-      <c r="F23">
-        <f>market_prices!C23-0.01</f>
-        <v>31.74</v>
-      </c>
-      <c r="G23">
-        <f>market_prices!D23-0.01</f>
-        <v>56.97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>45398.916666666664</v>
-      </c>
-      <c r="B24">
-        <f>market_prices!B24+0.01</f>
-        <v>27.36</v>
-      </c>
-      <c r="C24">
-        <f>market_prices!C24+0.01</f>
-        <v>29.160000000000004</v>
-      </c>
-      <c r="D24">
-        <f>market_prices!D24+0.01</f>
-        <v>42.265000000000001</v>
-      </c>
-      <c r="E24">
-        <f>market_prices!B24-0.01</f>
-        <v>27.339999999999996</v>
-      </c>
-      <c r="F24">
-        <f>market_prices!C24-0.01</f>
-        <v>29.14</v>
-      </c>
-      <c r="G24">
-        <f>market_prices!D24-0.01</f>
-        <v>42.245000000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>45398.958333333336</v>
-      </c>
-      <c r="B25">
-        <f>market_prices!B25+0.01</f>
-        <v>27.44</v>
-      </c>
-      <c r="C25">
-        <f>market_prices!C25+0.01</f>
-        <v>28.72</v>
-      </c>
-      <c r="D25">
-        <f>market_prices!D25+0.01</f>
-        <v>47.844999999999999</v>
-      </c>
-      <c r="E25">
-        <f>market_prices!B25-0.01</f>
-        <v>27.419999999999998</v>
-      </c>
-      <c r="F25">
-        <f>market_prices!C25-0.01</f>
-        <v>28.699999999999996</v>
-      </c>
-      <c r="G25">
-        <f>market_prices!D25-0.01</f>
-        <v>47.825000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="str">
-        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="str">
-        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
-        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="str">
-        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
-        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="str">
-        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="str">
-        <f>IF(timeseries!A32&lt;&gt;"",timeseries!A32,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="str">
-        <f>IF(timeseries!A33&lt;&gt;"",timeseries!A33,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10091,6 +9480,821 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+      <c r="B2">
+        <f>market_prices!B2+0.01</f>
+        <v>16.440000000000001</v>
+      </c>
+      <c r="C2">
+        <f>market_prices!C2+0.01</f>
+        <v>24.26</v>
+      </c>
+      <c r="D2">
+        <f>market_prices!D2+0.01</f>
+        <v>17.78</v>
+      </c>
+      <c r="E2">
+        <f>market_prices!B2-0.01</f>
+        <v>16.419999999999998</v>
+      </c>
+      <c r="F2">
+        <f>market_prices!C2-0.01</f>
+        <v>24.24</v>
+      </c>
+      <c r="G2">
+        <f>market_prices!D2-0.01</f>
+        <v>17.759999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+      <c r="B3">
+        <f>market_prices!B3+0.01</f>
+        <v>7.66</v>
+      </c>
+      <c r="C3">
+        <f>market_prices!C3+0.01</f>
+        <v>22.59</v>
+      </c>
+      <c r="D3">
+        <f>market_prices!D3+0.01</f>
+        <v>19.14</v>
+      </c>
+      <c r="E3">
+        <f>market_prices!B3-0.01</f>
+        <v>7.6400000000000006</v>
+      </c>
+      <c r="F3">
+        <f>market_prices!C3-0.01</f>
+        <v>22.569999999999997</v>
+      </c>
+      <c r="G3">
+        <f>market_prices!D3-0.01</f>
+        <v>19.119999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+      <c r="B4">
+        <f>market_prices!B4+0.01</f>
+        <v>2.1399999999999997</v>
+      </c>
+      <c r="C4">
+        <f>market_prices!C4+0.01</f>
+        <v>24.540000000000003</v>
+      </c>
+      <c r="D4">
+        <f>market_prices!D4+0.01</f>
+        <v>20.430000000000003</v>
+      </c>
+      <c r="E4">
+        <f>market_prices!B4-0.01</f>
+        <v>2.12</v>
+      </c>
+      <c r="F4">
+        <f>market_prices!C4-0.01</f>
+        <v>24.52</v>
+      </c>
+      <c r="G4">
+        <f>market_prices!D4-0.01</f>
+        <v>20.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+      <c r="B5">
+        <f>market_prices!B5+0.01</f>
+        <v>2.84</v>
+      </c>
+      <c r="C5">
+        <f>market_prices!C5+0.01</f>
+        <v>25.89</v>
+      </c>
+      <c r="D5">
+        <f>market_prices!D5+0.01</f>
+        <v>20.320000000000004</v>
+      </c>
+      <c r="E5">
+        <f>market_prices!B5-0.01</f>
+        <v>2.8200000000000003</v>
+      </c>
+      <c r="F5">
+        <f>market_prices!C5-0.01</f>
+        <v>25.869999999999997</v>
+      </c>
+      <c r="G5">
+        <f>market_prices!D5-0.01</f>
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+      <c r="B6">
+        <f>market_prices!B6+0.01</f>
+        <v>3.55</v>
+      </c>
+      <c r="C6">
+        <f>market_prices!C6+0.01</f>
+        <v>26.55</v>
+      </c>
+      <c r="D6">
+        <f>market_prices!D6+0.01</f>
+        <v>45.494999999999997</v>
+      </c>
+      <c r="E6">
+        <f>market_prices!B6-0.01</f>
+        <v>3.5300000000000002</v>
+      </c>
+      <c r="F6">
+        <f>market_prices!C6-0.01</f>
+        <v>26.529999999999998</v>
+      </c>
+      <c r="G6">
+        <f>market_prices!D6-0.01</f>
+        <v>45.475000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+      <c r="B7">
+        <f>market_prices!B7+0.01</f>
+        <v>17.78</v>
+      </c>
+      <c r="C7">
+        <f>market_prices!C7+0.01</f>
+        <v>27.92</v>
+      </c>
+      <c r="D7">
+        <f>market_prices!D7+0.01</f>
+        <v>63.004999999999995</v>
+      </c>
+      <c r="E7">
+        <f>market_prices!B7-0.01</f>
+        <v>17.759999999999998</v>
+      </c>
+      <c r="F7">
+        <f>market_prices!C7-0.01</f>
+        <v>27.9</v>
+      </c>
+      <c r="G7">
+        <f>market_prices!D7-0.01</f>
+        <v>62.984999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+      <c r="B8">
+        <f>market_prices!B8+0.01</f>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C8">
+        <f>market_prices!C8+0.01</f>
+        <v>49.569999999999993</v>
+      </c>
+      <c r="D8">
+        <f>market_prices!D8+0.01</f>
+        <v>77.475000000000009</v>
+      </c>
+      <c r="E8">
+        <f>market_prices!B8-0.01</f>
+        <v>17.879999999999995</v>
+      </c>
+      <c r="F8">
+        <f>market_prices!C8-0.01</f>
+        <v>49.55</v>
+      </c>
+      <c r="G8">
+        <f>market_prices!D8-0.01</f>
+        <v>77.454999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+      <c r="B9">
+        <f>market_prices!B9+0.01</f>
+        <v>25.490000000000002</v>
+      </c>
+      <c r="C9">
+        <f>market_prices!C9+0.01</f>
+        <v>56.23</v>
+      </c>
+      <c r="D9">
+        <f>market_prices!D9+0.01</f>
+        <v>83.15</v>
+      </c>
+      <c r="E9">
+        <f>market_prices!B9-0.01</f>
+        <v>25.47</v>
+      </c>
+      <c r="F9">
+        <f>market_prices!C9-0.01</f>
+        <v>56.21</v>
+      </c>
+      <c r="G9">
+        <f>market_prices!D9-0.01</f>
+        <v>83.13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+      <c r="B10">
+        <f>market_prices!B10+0.01</f>
+        <v>24.250000000000004</v>
+      </c>
+      <c r="C10">
+        <f>market_prices!C10+0.01</f>
+        <v>50.23</v>
+      </c>
+      <c r="D10">
+        <f>market_prices!D10+0.01</f>
+        <v>83.035000000000011</v>
+      </c>
+      <c r="E10">
+        <f>market_prices!B10-0.01</f>
+        <v>24.23</v>
+      </c>
+      <c r="F10">
+        <f>market_prices!C10-0.01</f>
+        <v>50.21</v>
+      </c>
+      <c r="G10">
+        <f>market_prices!D10-0.01</f>
+        <v>83.015000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+      <c r="B11">
+        <f>market_prices!B11+0.01</f>
+        <v>24.720000000000002</v>
+      </c>
+      <c r="C11">
+        <f>market_prices!C11+0.01</f>
+        <v>56.309999999999995</v>
+      </c>
+      <c r="D11">
+        <f>market_prices!D11+0.01</f>
+        <v>83.555000000000007</v>
+      </c>
+      <c r="E11">
+        <f>market_prices!B11-0.01</f>
+        <v>24.7</v>
+      </c>
+      <c r="F11">
+        <f>market_prices!C11-0.01</f>
+        <v>56.29</v>
+      </c>
+      <c r="G11">
+        <f>market_prices!D11-0.01</f>
+        <v>83.534999999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+      <c r="B12">
+        <f>market_prices!B12+0.01</f>
+        <v>26.750000000000004</v>
+      </c>
+      <c r="C12">
+        <f>market_prices!C12+0.01</f>
+        <v>56.24</v>
+      </c>
+      <c r="D12">
+        <f>market_prices!D12+0.01</f>
+        <v>81.42</v>
+      </c>
+      <c r="E12">
+        <f>market_prices!B12-0.01</f>
+        <v>26.73</v>
+      </c>
+      <c r="F12">
+        <f>market_prices!C12-0.01</f>
+        <v>56.220000000000006</v>
+      </c>
+      <c r="G12">
+        <f>market_prices!D12-0.01</f>
+        <v>81.399999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+      <c r="B13">
+        <f>market_prices!B13+0.01</f>
+        <v>23.86</v>
+      </c>
+      <c r="C13">
+        <f>market_prices!C13+0.01</f>
+        <v>51.879999999999995</v>
+      </c>
+      <c r="D13">
+        <f>market_prices!D13+0.01</f>
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E13">
+        <f>market_prices!B13-0.01</f>
+        <v>23.839999999999996</v>
+      </c>
+      <c r="F13">
+        <f>market_prices!C13-0.01</f>
+        <v>51.86</v>
+      </c>
+      <c r="G13">
+        <f>market_prices!D13-0.01</f>
+        <v>80.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+      <c r="B14">
+        <f>market_prices!B14+0.01</f>
+        <v>25.46</v>
+      </c>
+      <c r="C14">
+        <f>market_prices!C14+0.01</f>
+        <v>56.44</v>
+      </c>
+      <c r="D14">
+        <f>market_prices!D14+0.01</f>
+        <v>77.055000000000007</v>
+      </c>
+      <c r="E14">
+        <f>market_prices!B14-0.01</f>
+        <v>25.439999999999998</v>
+      </c>
+      <c r="F14">
+        <f>market_prices!C14-0.01</f>
+        <v>56.42</v>
+      </c>
+      <c r="G14">
+        <f>market_prices!D14-0.01</f>
+        <v>77.034999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+      <c r="B15">
+        <f>market_prices!B15+0.01</f>
+        <v>27.34</v>
+      </c>
+      <c r="C15">
+        <f>market_prices!C15+0.01</f>
+        <v>59.4</v>
+      </c>
+      <c r="D15">
+        <f>market_prices!D15+0.01</f>
+        <v>76.39</v>
+      </c>
+      <c r="E15">
+        <f>market_prices!B15-0.01</f>
+        <v>27.319999999999997</v>
+      </c>
+      <c r="F15">
+        <f>market_prices!C15-0.01</f>
+        <v>59.38</v>
+      </c>
+      <c r="G15">
+        <f>market_prices!D15-0.01</f>
+        <v>76.36999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+      <c r="B16">
+        <f>market_prices!B16+0.01</f>
+        <v>25.37</v>
+      </c>
+      <c r="C16">
+        <f>market_prices!C16+0.01</f>
+        <v>56.44</v>
+      </c>
+      <c r="D16">
+        <f>market_prices!D16+0.01</f>
+        <v>80.935000000000002</v>
+      </c>
+      <c r="E16">
+        <f>market_prices!B16-0.01</f>
+        <v>25.349999999999998</v>
+      </c>
+      <c r="F16">
+        <f>market_prices!C16-0.01</f>
+        <v>56.42</v>
+      </c>
+      <c r="G16">
+        <f>market_prices!D16-0.01</f>
+        <v>80.914999999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+      <c r="B17">
+        <f>market_prices!B17+0.01</f>
+        <v>29.59</v>
+      </c>
+      <c r="C17">
+        <f>market_prices!C17+0.01</f>
+        <v>61.309999999999995</v>
+      </c>
+      <c r="D17">
+        <f>market_prices!D17+0.01</f>
+        <v>81.984999999999999</v>
+      </c>
+      <c r="E17">
+        <f>market_prices!B17-0.01</f>
+        <v>29.569999999999997</v>
+      </c>
+      <c r="F17">
+        <f>market_prices!C17-0.01</f>
+        <v>61.29</v>
+      </c>
+      <c r="G17">
+        <f>market_prices!D17-0.01</f>
+        <v>81.964999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+      <c r="B18">
+        <f>market_prices!B18+0.01</f>
+        <v>28.89</v>
+      </c>
+      <c r="C18">
+        <f>market_prices!C18+0.01</f>
+        <v>63.33</v>
+      </c>
+      <c r="D18">
+        <f>market_prices!D18+0.01</f>
+        <v>85.39</v>
+      </c>
+      <c r="E18">
+        <f>market_prices!B18-0.01</f>
+        <v>28.869999999999997</v>
+      </c>
+      <c r="F18">
+        <f>market_prices!C18-0.01</f>
+        <v>63.31</v>
+      </c>
+      <c r="G18">
+        <f>market_prices!D18-0.01</f>
+        <v>85.36999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+      <c r="B19">
+        <f>market_prices!B19+0.01</f>
+        <v>27.430000000000003</v>
+      </c>
+      <c r="C19">
+        <f>market_prices!C19+0.01</f>
+        <v>60.26</v>
+      </c>
+      <c r="D19">
+        <f>market_prices!D19+0.01</f>
+        <v>83.140000000000015</v>
+      </c>
+      <c r="E19">
+        <f>market_prices!B19-0.01</f>
+        <v>27.41</v>
+      </c>
+      <c r="F19">
+        <f>market_prices!C19-0.01</f>
+        <v>60.24</v>
+      </c>
+      <c r="G19">
+        <f>market_prices!D19-0.01</f>
+        <v>83.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+      <c r="B20">
+        <f>market_prices!B20+0.01</f>
+        <v>28.320000000000004</v>
+      </c>
+      <c r="C20">
+        <f>market_prices!C20+0.01</f>
+        <v>51.94</v>
+      </c>
+      <c r="D20">
+        <f>market_prices!D20+0.01</f>
+        <v>76.650000000000006</v>
+      </c>
+      <c r="E20">
+        <f>market_prices!B20-0.01</f>
+        <v>28.3</v>
+      </c>
+      <c r="F20">
+        <f>market_prices!C20-0.01</f>
+        <v>51.92</v>
+      </c>
+      <c r="G20">
+        <f>market_prices!D20-0.01</f>
+        <v>76.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+      <c r="B21">
+        <f>market_prices!B21+0.01</f>
+        <v>26.21</v>
+      </c>
+      <c r="C21">
+        <f>market_prices!C21+0.01</f>
+        <v>37.089999999999996</v>
+      </c>
+      <c r="D21">
+        <f>market_prices!D21+0.01</f>
+        <v>73.215000000000003</v>
+      </c>
+      <c r="E21">
+        <f>market_prices!B21-0.01</f>
+        <v>26.189999999999998</v>
+      </c>
+      <c r="F21">
+        <f>market_prices!C21-0.01</f>
+        <v>37.07</v>
+      </c>
+      <c r="G21">
+        <f>market_prices!D21-0.01</f>
+        <v>73.194999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+      <c r="B22">
+        <f>market_prices!B22+0.01</f>
+        <v>28.78</v>
+      </c>
+      <c r="C22">
+        <f>market_prices!C22+0.01</f>
+        <v>36.799999999999997</v>
+      </c>
+      <c r="D22">
+        <f>market_prices!D22+0.01</f>
+        <v>65.685000000000002</v>
+      </c>
+      <c r="E22">
+        <f>market_prices!B22-0.01</f>
+        <v>28.759999999999998</v>
+      </c>
+      <c r="F22">
+        <f>market_prices!C22-0.01</f>
+        <v>36.78</v>
+      </c>
+      <c r="G22">
+        <f>market_prices!D22-0.01</f>
+        <v>65.664999999999992</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+      <c r="B23">
+        <f>market_prices!B23+0.01</f>
+        <v>27.080000000000002</v>
+      </c>
+      <c r="C23">
+        <f>market_prices!C23+0.01</f>
+        <v>31.76</v>
+      </c>
+      <c r="D23">
+        <f>market_prices!D23+0.01</f>
+        <v>56.989999999999995</v>
+      </c>
+      <c r="E23">
+        <f>market_prices!B23-0.01</f>
+        <v>27.06</v>
+      </c>
+      <c r="F23">
+        <f>market_prices!C23-0.01</f>
+        <v>31.74</v>
+      </c>
+      <c r="G23">
+        <f>market_prices!D23-0.01</f>
+        <v>56.97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+      <c r="B24">
+        <f>market_prices!B24+0.01</f>
+        <v>27.36</v>
+      </c>
+      <c r="C24">
+        <f>market_prices!C24+0.01</f>
+        <v>29.160000000000004</v>
+      </c>
+      <c r="D24">
+        <f>market_prices!D24+0.01</f>
+        <v>42.265000000000001</v>
+      </c>
+      <c r="E24">
+        <f>market_prices!B24-0.01</f>
+        <v>27.339999999999996</v>
+      </c>
+      <c r="F24">
+        <f>market_prices!C24-0.01</f>
+        <v>29.14</v>
+      </c>
+      <c r="G24">
+        <f>market_prices!D24-0.01</f>
+        <v>42.245000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+      <c r="B25">
+        <f>market_prices!B25+0.01</f>
+        <v>27.44</v>
+      </c>
+      <c r="C25">
+        <f>market_prices!C25+0.01</f>
+        <v>28.72</v>
+      </c>
+      <c r="D25">
+        <f>market_prices!D25+0.01</f>
+        <v>47.844999999999999</v>
+      </c>
+      <c r="E25">
+        <f>market_prices!B25-0.01</f>
+        <v>27.419999999999998</v>
+      </c>
+      <c r="F25">
+        <f>market_prices!C25-0.01</f>
+        <v>28.699999999999996</v>
+      </c>
+      <c r="G25">
+        <f>market_prices!D25-0.01</f>
+        <v>47.825000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="str">
+        <f>IF(timeseries!A32&lt;&gt;"",timeseries!A32,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="str">
+        <f>IF(timeseries!A33&lt;&gt;"",timeseries!A33,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAAB801-9877-463F-8AD6-7230B4E2C7B0}">
   <dimension ref="A1:BA31"/>
   <sheetViews>
@@ -10345,7 +10549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10387,7 +10591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -10434,7 +10638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -10608,7 +10812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -11004,7 +11208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -11399,7 +11603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -11467,7 +11671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:S25"/>
   <sheetViews>

--- a/input_data/simple_dh_model.xlsx
+++ b/input_data/simple_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29172C2B-90DB-416A-A284-509A7E9205C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB2CF20-FA41-4324-9A93-4CCC5D3213E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="144">
   <si>
     <t>node</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>delay_t</t>
@@ -7147,26 +7144,202 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CA5E7-5C31-4336-93EE-0293D708EE58}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>95</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7219,13 +7392,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8134,7 +8307,7 @@
         <v>92</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8546,8 +8719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C35028-EB47-4372-84A9-B7FA5BC5A465}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9406,7 +9579,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9414,7 +9587,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9422,7 +9595,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9430,7 +9603,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -9438,7 +9611,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -9446,7 +9619,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9454,7 +9627,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8">
         <v>10000000</v>
@@ -9462,7 +9635,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9470,7 +9643,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -10831,13 +11004,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11226,13 +11399,13 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
         <v>124</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>125</v>
-      </c>
-      <c r="D1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11648,7 +11821,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -11721,31 +11894,31 @@
         <v>91</v>
       </c>
       <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M1" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" t="s">
         <v>139</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>142</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>140</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>137</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>141</v>
-      </c>
-      <c r="R1" t="s">
-        <v>144</v>
-      </c>
-      <c r="S1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -13239,7 +13412,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -13254,13 +13427,13 @@
         <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>53</v>
@@ -13368,7 +13541,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -13468,7 +13641,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -13593,7 +13766,7 @@
         <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>45</v>
@@ -13654,7 +13827,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -13707,7 +13880,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -13760,7 +13933,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -13813,7 +13986,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -13866,7 +14039,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -13919,7 +14092,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -14646,7 +14819,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14657,7 +14830,7 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14665,10 +14838,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14676,10 +14849,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14687,10 +14860,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14698,10 +14871,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14709,10 +14882,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -14826,10 +14999,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -14930,7 +15103,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -14962,13 +15135,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -14994,7 +15167,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -15026,7 +15199,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -15058,7 +15231,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -15090,7 +15263,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -15122,13 +15295,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -15154,13 +15327,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -15186,7 +15359,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
@@ -15218,7 +15391,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -15250,7 +15423,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -15282,7 +15455,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -15509,13 +15682,13 @@
         <v>94</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/simple_dh_model.xlsx
+++ b/input_data/simple_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB2CF20-FA41-4324-9A93-4CCC5D3213E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF15E0-C0B3-4C0B-A445-4B7492580D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="145">
   <si>
     <t>node</t>
   </si>
@@ -134,9 +134,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
   </si>
   <si>
     <t>conversion_coeff</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>energy</t>
@@ -362,9 +356,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>use_market_bids</t>
   </si>
   <si>
@@ -492,6 +483,18 @@
   </si>
   <si>
     <t>hp1_c1,heat_pump_1,hp_source,s3</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -6941,7 +6944,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7146,7 +7149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CA5E7-5C31-4336-93EE-0293D708EE58}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -7157,7 +7160,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7353,17 +7356,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7389,16 +7392,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7788,16 +7791,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8208,7 +8211,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8301,13 +8304,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8609,7 +8612,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8626,40 +8629,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8667,22 +8670,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -8730,7 +8733,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -8934,7 +8937,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -9139,16 +9142,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9571,15 +9574,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9587,7 +9590,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -9595,7 +9598,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -9603,7 +9606,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -9611,7 +9614,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -9619,7 +9622,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9627,7 +9630,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>10000000</v>
@@ -9635,7 +9638,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9643,7 +9646,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -9670,25 +9673,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -10482,7 +10485,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -10737,15 +10740,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -10753,7 +10756,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -10776,15 +10779,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -10792,7 +10795,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -10800,7 +10803,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -10826,7 +10829,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11001,16 +11004,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11396,16 +11399,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11793,24 +11796,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -11821,10 +11824,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -11864,61 +11867,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
       <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
       <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" t="s">
         <v>138</v>
       </c>
-      <c r="L1" t="s">
-        <v>141</v>
-      </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" t="s">
         <v>139</v>
       </c>
-      <c r="O1" t="s">
-        <v>142</v>
-      </c>
       <c r="P1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q1" t="s">
+        <v>137</v>
+      </c>
+      <c r="R1" t="s">
         <v>140</v>
       </c>
-      <c r="R1" t="s">
-        <v>143</v>
-      </c>
       <c r="S1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -13373,7 +13376,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13400,7 +13403,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -13412,7 +13415,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -13421,22 +13424,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -13541,7 +13544,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -13591,7 +13594,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -13641,7 +13644,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -13727,13 +13730,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -13748,33 +13751,33 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -13827,7 +13830,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -13880,7 +13883,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -13933,7 +13936,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -13986,7 +13989,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -14039,7 +14042,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -14092,7 +14095,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -14791,8 +14794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14802,13 +14805,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14819,7 +14822,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14827,10 +14830,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14838,10 +14841,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14849,10 +14852,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14860,10 +14863,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14871,10 +14874,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14882,10 +14885,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -14957,7 +14960,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14984,13 +14987,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>141</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
@@ -14999,15 +15002,15 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -15039,7 +15042,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -15071,13 +15074,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -15103,7 +15106,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -15135,13 +15138,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -15167,13 +15170,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -15199,7 +15202,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -15231,13 +15234,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -15263,13 +15266,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -15295,13 +15298,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -15327,13 +15330,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -15359,13 +15362,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -15391,13 +15394,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -15423,7 +15426,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -15455,13 +15458,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -15507,7 +15510,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -15676,19 +15679,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/simple_dh_model.xlsx
+++ b/input_data/simple_dh_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BF15E0-C0B3-4C0B-A445-4B7492580D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E936D-A215-45DB-94F6-DD14D2E2FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="146">
   <si>
     <t>node</t>
   </si>
@@ -371,9 +371,6 @@
     <t>use_ramp_dummy_variables</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -495,6 +492,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -7395,13 +7398,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8310,7 +8313,7 @@
         <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -8632,7 +8635,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -9560,10 +9563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB98B755-8BE1-4837-9877-4DDB59C80C3F}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9614,7 +9617,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -9630,7 +9633,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>10000000</v>
@@ -9638,7 +9641,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -9646,7 +9649,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>145</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -11007,13 +11018,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11402,13 +11413,13 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11824,7 +11835,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -11897,31 +11908,31 @@
         <v>89</v>
       </c>
       <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" t="s">
         <v>135</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>136</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>139</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>133</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>137</v>
-      </c>
-      <c r="R1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -13430,13 +13441,13 @@
         <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>97</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>51</v>
@@ -13544,7 +13555,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -13644,7 +13655,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -13769,7 +13780,7 @@
         <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>43</v>
@@ -13830,7 +13841,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -13883,7 +13894,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -13936,7 +13947,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -13989,7 +14000,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -14042,7 +14053,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -14095,7 +14106,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -14794,8 +14805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14805,7 +14816,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -14822,7 +14833,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -14833,7 +14844,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -14841,10 +14852,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -14852,10 +14863,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14863,10 +14874,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14874,10 +14885,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14885,10 +14896,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -14993,7 +15004,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
@@ -15002,10 +15013,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -15106,7 +15117,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -15138,13 +15149,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -15170,7 +15181,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -15202,7 +15213,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -15234,7 +15245,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -15266,7 +15277,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -15298,13 +15309,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -15330,13 +15341,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -15362,7 +15373,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
@@ -15394,7 +15405,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -15426,7 +15437,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -15458,7 +15469,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
